--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -4177,28 +4177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9132.037851903995</v>
+        <v>9660.515504246465</v>
       </c>
       <c r="AB2" t="n">
-        <v>12494.85706605215</v>
+        <v>13217.9435047757</v>
       </c>
       <c r="AC2" t="n">
-        <v>11302.36544430969</v>
+        <v>11956.44152817964</v>
       </c>
       <c r="AD2" t="n">
-        <v>9132037.851903995</v>
+        <v>9660515.504246464</v>
       </c>
       <c r="AE2" t="n">
-        <v>12494857.06605215</v>
+        <v>13217943.5047757</v>
       </c>
       <c r="AF2" t="n">
         <v>1.501464608048542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>105</v>
+        <v>104.5291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>11302365.44430969</v>
+        <v>11956441.52817964</v>
       </c>
     </row>
     <row r="3">
@@ -4283,28 +4283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3185.565981533363</v>
+        <v>3469.364767535904</v>
       </c>
       <c r="AB3" t="n">
-        <v>4358.631913186679</v>
+        <v>4746.937932514177</v>
       </c>
       <c r="AC3" t="n">
-        <v>3942.65020077029</v>
+        <v>4293.896838604077</v>
       </c>
       <c r="AD3" t="n">
-        <v>3185565.981533363</v>
+        <v>3469364.767535904</v>
       </c>
       <c r="AE3" t="n">
-        <v>4358631.91318668</v>
+        <v>4746937.932514178</v>
       </c>
       <c r="AF3" t="n">
         <v>2.821367263994876e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.62916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3942650.20077029</v>
+        <v>4293896.838604077</v>
       </c>
     </row>
     <row r="4">
@@ -4389,28 +4389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2478.991623053281</v>
+        <v>2723.636323974428</v>
       </c>
       <c r="AB4" t="n">
-        <v>3391.86570405348</v>
+        <v>3726.599376816288</v>
       </c>
       <c r="AC4" t="n">
-        <v>3068.150801771902</v>
+        <v>3370.937962607876</v>
       </c>
       <c r="AD4" t="n">
-        <v>2478991.623053281</v>
+        <v>2723636.323974428</v>
       </c>
       <c r="AE4" t="n">
-        <v>3391865.70405348</v>
+        <v>3726599.376816289</v>
       </c>
       <c r="AF4" t="n">
         <v>3.301640062605486e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.5375</v>
       </c>
       <c r="AH4" t="n">
-        <v>3068150.801771902</v>
+        <v>3370937.962607876</v>
       </c>
     </row>
     <row r="5">
@@ -4495,28 +4495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2194.617762924569</v>
+        <v>2409.897911064529</v>
       </c>
       <c r="AB5" t="n">
-        <v>3002.772842936076</v>
+        <v>3297.328639111022</v>
       </c>
       <c r="AC5" t="n">
-        <v>2716.192417224298</v>
+        <v>2982.636221623952</v>
       </c>
       <c r="AD5" t="n">
-        <v>2194617.762924569</v>
+        <v>2409897.911064529</v>
       </c>
       <c r="AE5" t="n">
-        <v>3002772.842936076</v>
+        <v>3297328.639111022</v>
       </c>
       <c r="AF5" t="n">
         <v>3.56042234703332e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.07916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2716192.417224297</v>
+        <v>2982636.221623952</v>
       </c>
     </row>
     <row r="6">
@@ -4601,28 +4601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2031.557353224025</v>
+        <v>2237.048980093638</v>
       </c>
       <c r="AB6" t="n">
-        <v>2779.66639666605</v>
+        <v>3060.829106199987</v>
       </c>
       <c r="AC6" t="n">
-        <v>2514.378937054533</v>
+        <v>2768.707872204776</v>
       </c>
       <c r="AD6" t="n">
-        <v>2031557.353224025</v>
+        <v>2237048.980093638</v>
       </c>
       <c r="AE6" t="n">
-        <v>2779666.39666605</v>
+        <v>3060829.106199987</v>
       </c>
       <c r="AF6" t="n">
         <v>3.720889964451454e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.18333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2514378.937054533</v>
+        <v>2768707.872204776</v>
       </c>
     </row>
     <row r="7">
@@ -4707,19 +4707,19 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1918.70173573404</v>
+        <v>2133.946707425362</v>
       </c>
       <c r="AB7" t="n">
-        <v>2625.252361977798</v>
+        <v>2919.760028183825</v>
       </c>
       <c r="AC7" t="n">
-        <v>2374.701961115468</v>
+        <v>2641.102229002897</v>
       </c>
       <c r="AD7" t="n">
-        <v>1918701.73573404</v>
+        <v>2133946.707425361</v>
       </c>
       <c r="AE7" t="n">
-        <v>2625252.361977798</v>
+        <v>2919760.028183825</v>
       </c>
       <c r="AF7" t="n">
         <v>3.828245060611472e-06</v>
@@ -4728,7 +4728,7 @@
         <v>41</v>
       </c>
       <c r="AH7" t="n">
-        <v>2374701.961115468</v>
+        <v>2641102.229002897</v>
       </c>
     </row>
     <row r="8">
@@ -4813,28 +4813,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1844.200397930986</v>
+        <v>2039.903503530249</v>
       </c>
       <c r="AB8" t="n">
-        <v>2523.316344828605</v>
+        <v>2791.085967721191</v>
       </c>
       <c r="AC8" t="n">
-        <v>2282.494574374894</v>
+        <v>2524.708640275639</v>
       </c>
       <c r="AD8" t="n">
-        <v>1844200.397930986</v>
+        <v>2039903.503530249</v>
       </c>
       <c r="AE8" t="n">
-        <v>2523316.344828605</v>
+        <v>2791085.967721191</v>
       </c>
       <c r="AF8" t="n">
         <v>3.910362292060188e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.1375</v>
       </c>
       <c r="AH8" t="n">
-        <v>2282494.574374895</v>
+        <v>2524708.640275639</v>
       </c>
     </row>
     <row r="9">
@@ -4919,28 +4919,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1775.682796729156</v>
+        <v>1971.453222136123</v>
       </c>
       <c r="AB9" t="n">
-        <v>2429.567540081032</v>
+        <v>2697.42927290446</v>
       </c>
       <c r="AC9" t="n">
-        <v>2197.693023975157</v>
+        <v>2439.99040896422</v>
       </c>
       <c r="AD9" t="n">
-        <v>1775682.796729156</v>
+        <v>1971453.222136123</v>
       </c>
       <c r="AE9" t="n">
-        <v>2429567.540081032</v>
+        <v>2697429.272904459</v>
       </c>
       <c r="AF9" t="n">
         <v>3.97063181972897e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>39.52916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2197693.023975157</v>
+        <v>2439990.40896422</v>
       </c>
     </row>
     <row r="10">
@@ -5025,28 +5025,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1723.518485245132</v>
+        <v>1919.187425425614</v>
       </c>
       <c r="AB10" t="n">
-        <v>2358.194027781588</v>
+        <v>2625.916904040926</v>
       </c>
       <c r="AC10" t="n">
-        <v>2133.131299516218</v>
+        <v>2375.303080216782</v>
       </c>
       <c r="AD10" t="n">
-        <v>1723518.485245132</v>
+        <v>1919187.425425614</v>
       </c>
       <c r="AE10" t="n">
-        <v>2358194.027781588</v>
+        <v>2625916.904040926</v>
       </c>
       <c r="AF10" t="n">
         <v>4.021107549151575e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>40</v>
+        <v>39.03333333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>2133131.299516218</v>
+        <v>2375303.080216782</v>
       </c>
     </row>
     <row r="11">
@@ -5131,28 +5131,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1672.047375727409</v>
+        <v>1867.783635715595</v>
       </c>
       <c r="AB11" t="n">
-        <v>2287.768984994349</v>
+        <v>2555.583971184529</v>
       </c>
       <c r="AC11" t="n">
-        <v>2069.427523970425</v>
+        <v>2311.682623759307</v>
       </c>
       <c r="AD11" t="n">
-        <v>1672047.375727409</v>
+        <v>1867783.635715595</v>
       </c>
       <c r="AE11" t="n">
-        <v>2287768.984994349</v>
+        <v>2555583.971184529</v>
       </c>
       <c r="AF11" t="n">
         <v>4.056515896656985e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>39</v>
+        <v>38.69166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2069427.523970425</v>
+        <v>2311682.623759307</v>
       </c>
     </row>
     <row r="12">
@@ -5237,28 +5237,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1633.833771278933</v>
+        <v>1829.468546040634</v>
       </c>
       <c r="AB12" t="n">
-        <v>2235.483445522698</v>
+        <v>2503.159575148789</v>
       </c>
       <c r="AC12" t="n">
-        <v>2022.132043002733</v>
+        <v>2264.261538503116</v>
       </c>
       <c r="AD12" t="n">
-        <v>1633833.771278933</v>
+        <v>1829468.546040634</v>
       </c>
       <c r="AE12" t="n">
-        <v>2235483.445522698</v>
+        <v>2503159.575148789</v>
       </c>
       <c r="AF12" t="n">
         <v>4.086650660491376e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>39</v>
+        <v>38.40416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2022132.043002733</v>
+        <v>2264261.538503116</v>
       </c>
     </row>
     <row r="13">
@@ -5343,28 +5343,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1617.696096073966</v>
+        <v>1803.61068040288</v>
       </c>
       <c r="AB13" t="n">
-        <v>2213.403166363279</v>
+        <v>2467.779702614694</v>
       </c>
       <c r="AC13" t="n">
-        <v>2002.159074696422</v>
+        <v>2232.258271347712</v>
       </c>
       <c r="AD13" t="n">
-        <v>1617696.096073966</v>
+        <v>1803610.68040288</v>
       </c>
       <c r="AE13" t="n">
-        <v>2213403.166363278</v>
+        <v>2467779.702614693</v>
       </c>
       <c r="AF13" t="n">
         <v>4.100211304216853e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>39</v>
+        <v>38.27916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2002159.074696422</v>
+        <v>2232258.271347712</v>
       </c>
     </row>
     <row r="14">
@@ -5449,28 +5449,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1624.209163425727</v>
+        <v>1810.123747754641</v>
       </c>
       <c r="AB14" t="n">
-        <v>2222.31463245021</v>
+        <v>2476.691168701625</v>
       </c>
       <c r="AC14" t="n">
-        <v>2010.220042967337</v>
+        <v>2240.319239618628</v>
       </c>
       <c r="AD14" t="n">
-        <v>1624209.163425727</v>
+        <v>1810123.747754641</v>
       </c>
       <c r="AE14" t="n">
-        <v>2222314.632450209</v>
+        <v>2476691.168701624</v>
       </c>
       <c r="AF14" t="n">
         <v>4.099834619668923e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>39</v>
+        <v>38.27916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2010220.042967337</v>
+        <v>2240319.239618628</v>
       </c>
     </row>
     <row r="15">
@@ -5555,28 +5555,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1629.138986648665</v>
+        <v>1824.773761410366</v>
       </c>
       <c r="AB15" t="n">
-        <v>2229.059834072285</v>
+        <v>2496.735963698376</v>
       </c>
       <c r="AC15" t="n">
-        <v>2016.321492013551</v>
+        <v>2258.450987513935</v>
       </c>
       <c r="AD15" t="n">
-        <v>1629138.986648665</v>
+        <v>1824773.761410366</v>
       </c>
       <c r="AE15" t="n">
-        <v>2229059.834072285</v>
+        <v>2496735.963698376</v>
       </c>
       <c r="AF15" t="n">
         <v>4.099457935120993e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>39</v>
+        <v>38.2875</v>
       </c>
       <c r="AH15" t="n">
-        <v>2016321.492013551</v>
+        <v>2258450.987513935</v>
       </c>
     </row>
   </sheetData>
@@ -5852,28 +5852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5631.860628265072</v>
+        <v>6038.308041924346</v>
       </c>
       <c r="AB2" t="n">
-        <v>7705.760171748193</v>
+        <v>8261.879454311214</v>
       </c>
       <c r="AC2" t="n">
-        <v>6970.33323605858</v>
+        <v>7473.377274812082</v>
       </c>
       <c r="AD2" t="n">
-        <v>5631860.628265072</v>
+        <v>6038308.041924346</v>
       </c>
       <c r="AE2" t="n">
-        <v>7705760.171748193</v>
+        <v>8261879.454311214</v>
       </c>
       <c r="AF2" t="n">
         <v>2.088838245683303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.22083333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>6970333.23605858</v>
+        <v>7473377.274812082</v>
       </c>
     </row>
     <row r="3">
@@ -5958,28 +5958,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2539.682292723078</v>
+        <v>2800.954623519655</v>
       </c>
       <c r="AB3" t="n">
-        <v>3474.905355779081</v>
+        <v>3832.389685296711</v>
       </c>
       <c r="AC3" t="n">
-        <v>3143.265265683691</v>
+        <v>3466.631792524553</v>
       </c>
       <c r="AD3" t="n">
-        <v>2539682.292723078</v>
+        <v>2800954.623519655</v>
       </c>
       <c r="AE3" t="n">
-        <v>3474905.355779081</v>
+        <v>3832389.685296712</v>
       </c>
       <c r="AF3" t="n">
         <v>3.371074982526387e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.94166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3143265.265683691</v>
+        <v>3466631.792524553</v>
       </c>
     </row>
     <row r="4">
@@ -6064,28 +6064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2055.86674235255</v>
+        <v>2278.485207386258</v>
       </c>
       <c r="AB4" t="n">
-        <v>2812.927575326256</v>
+        <v>3117.523980419085</v>
       </c>
       <c r="AC4" t="n">
-        <v>2544.465715505766</v>
+        <v>2819.991867200156</v>
       </c>
       <c r="AD4" t="n">
-        <v>2055866.74235255</v>
+        <v>2278485.207386259</v>
       </c>
       <c r="AE4" t="n">
-        <v>2812927.575326256</v>
+        <v>3117523.980419084</v>
       </c>
       <c r="AF4" t="n">
         <v>3.831872369794329e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.81666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2544465.715505766</v>
+        <v>2819991.867200156</v>
       </c>
     </row>
     <row r="5">
@@ -6170,28 +6170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1849.422197891345</v>
+        <v>2052.646410235911</v>
       </c>
       <c r="AB5" t="n">
-        <v>2530.461041903923</v>
+        <v>2808.521374853246</v>
       </c>
       <c r="AC5" t="n">
-        <v>2288.95739158899</v>
+        <v>2540.480036621757</v>
       </c>
       <c r="AD5" t="n">
-        <v>1849422.197891345</v>
+        <v>2052646.410235911</v>
       </c>
       <c r="AE5" t="n">
-        <v>2530461.041903923</v>
+        <v>2808521.374853245</v>
       </c>
       <c r="AF5" t="n">
         <v>4.075872417435315e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.13333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2288957.39158899</v>
+        <v>2540480.036621757</v>
       </c>
     </row>
     <row r="6">
@@ -6276,28 +6276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1718.99460140018</v>
+        <v>1922.251968133669</v>
       </c>
       <c r="AB6" t="n">
-        <v>2352.004250325254</v>
+        <v>2630.10994657217</v>
       </c>
       <c r="AC6" t="n">
-        <v>2127.532265732909</v>
+        <v>2379.095944653815</v>
       </c>
       <c r="AD6" t="n">
-        <v>1718994.60140018</v>
+        <v>1922251.968133669</v>
       </c>
       <c r="AE6" t="n">
-        <v>2352004.250325254</v>
+        <v>2630109.94657217</v>
       </c>
       <c r="AF6" t="n">
         <v>4.224250824784563e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>41</v>
+        <v>40.65416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2127532.265732909</v>
+        <v>2379095.944653816</v>
       </c>
     </row>
     <row r="7">
@@ -6382,28 +6382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1626.796744823683</v>
+        <v>1830.019946138392</v>
       </c>
       <c r="AB7" t="n">
-        <v>2225.855075474929</v>
+        <v>2503.914025088596</v>
       </c>
       <c r="AC7" t="n">
-        <v>2013.42259107882</v>
+        <v>2264.943984799546</v>
       </c>
       <c r="AD7" t="n">
-        <v>1626796.744823683</v>
+        <v>1830019.946138392</v>
       </c>
       <c r="AE7" t="n">
-        <v>2225855.075474929</v>
+        <v>2503914.025088596</v>
       </c>
       <c r="AF7" t="n">
         <v>4.329352196656947e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>39.66666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2013422.59107882</v>
+        <v>2264943.984799546</v>
       </c>
     </row>
     <row r="8">
@@ -6488,19 +6488,19 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1549.187770283081</v>
+        <v>1752.376806179009</v>
       </c>
       <c r="AB8" t="n">
-        <v>2119.667052642164</v>
+        <v>2397.679255622584</v>
       </c>
       <c r="AC8" t="n">
-        <v>1917.369004109388</v>
+        <v>2168.848112629934</v>
       </c>
       <c r="AD8" t="n">
-        <v>1549187.770283081</v>
+        <v>1752376.806179009</v>
       </c>
       <c r="AE8" t="n">
-        <v>2119667.052642164</v>
+        <v>2397679.255622584</v>
       </c>
       <c r="AF8" t="n">
         <v>4.403541400331572e-06</v>
@@ -6509,7 +6509,7 @@
         <v>39</v>
       </c>
       <c r="AH8" t="n">
-        <v>1917369.004109388</v>
+        <v>2168848.112629934</v>
       </c>
     </row>
     <row r="9">
@@ -6594,28 +6594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1505.150068595542</v>
+        <v>1698.726886178924</v>
       </c>
       <c r="AB9" t="n">
-        <v>2059.412726386991</v>
+        <v>2324.273068211042</v>
       </c>
       <c r="AC9" t="n">
-        <v>1862.865266184531</v>
+        <v>2102.447708718719</v>
       </c>
       <c r="AD9" t="n">
-        <v>1505150.068595542</v>
+        <v>1698726.886178924</v>
       </c>
       <c r="AE9" t="n">
-        <v>2059412.726386991</v>
+        <v>2324273.068211042</v>
       </c>
       <c r="AF9" t="n">
         <v>4.445994111323161e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>39</v>
+        <v>38.625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1862865.266184531</v>
+        <v>2102447.708718719</v>
       </c>
     </row>
     <row r="10">
@@ -6700,28 +6700,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1496.235866502043</v>
+        <v>1689.711198858939</v>
       </c>
       <c r="AB10" t="n">
-        <v>2047.215921815825</v>
+        <v>2311.937407075787</v>
       </c>
       <c r="AC10" t="n">
-        <v>1851.832507523314</v>
+        <v>2091.289345769003</v>
       </c>
       <c r="AD10" t="n">
-        <v>1496235.866502043</v>
+        <v>1689711.198858939</v>
       </c>
       <c r="AE10" t="n">
-        <v>2047215.921815825</v>
+        <v>2311937.407075787</v>
       </c>
       <c r="AF10" t="n">
         <v>4.46165627654336e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>39</v>
+        <v>38.49166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1851832.507523314</v>
+        <v>2091289.345769003</v>
       </c>
     </row>
     <row r="11">
@@ -6806,28 +6806,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1500.41900708853</v>
+        <v>1693.894339445427</v>
       </c>
       <c r="AB11" t="n">
-        <v>2052.939479313395</v>
+        <v>2317.660964573357</v>
       </c>
       <c r="AC11" t="n">
-        <v>1857.00981672638</v>
+        <v>2096.466654972069</v>
       </c>
       <c r="AD11" t="n">
-        <v>1500419.00708853</v>
+        <v>1693894.339445427</v>
       </c>
       <c r="AE11" t="n">
-        <v>2052939.479313395</v>
+        <v>2317660.964573357</v>
       </c>
       <c r="AF11" t="n">
         <v>4.460831952058087e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>39</v>
+        <v>38.49583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1857009.81672638</v>
+        <v>2096466.654972068</v>
       </c>
     </row>
   </sheetData>
@@ -7103,28 +7103,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1981.423829825116</v>
+        <v>2233.886186152469</v>
       </c>
       <c r="AB2" t="n">
-        <v>2711.071498216708</v>
+        <v>3056.501631997058</v>
       </c>
       <c r="AC2" t="n">
-        <v>2452.33063943965</v>
+        <v>2764.793406066126</v>
       </c>
       <c r="AD2" t="n">
-        <v>1981423.829825116</v>
+        <v>2233886.186152469</v>
       </c>
       <c r="AE2" t="n">
-        <v>2711071.498216708</v>
+        <v>3056501.631997058</v>
       </c>
       <c r="AF2" t="n">
         <v>4.583328530008356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.3</v>
       </c>
       <c r="AH2" t="n">
-        <v>2452330.63943965</v>
+        <v>2764793.406066126</v>
       </c>
     </row>
     <row r="3">
@@ -7209,28 +7209,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1322.048869604235</v>
+        <v>1527.801137040657</v>
       </c>
       <c r="AB3" t="n">
-        <v>1808.885588072292</v>
+        <v>2090.404917528211</v>
       </c>
       <c r="AC3" t="n">
-        <v>1636.24808633354</v>
+        <v>1890.899606101046</v>
       </c>
       <c r="AD3" t="n">
-        <v>1322048.869604235</v>
+        <v>1527801.137040657</v>
       </c>
       <c r="AE3" t="n">
-        <v>1808885.588072292</v>
+        <v>2090404.917528211</v>
       </c>
       <c r="AF3" t="n">
         <v>5.725277460856427e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.86666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1636248.08633354</v>
+        <v>1890899.606101046</v>
       </c>
     </row>
     <row r="4">
@@ -7315,28 +7315,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1225.957257910623</v>
+        <v>1422.286723799614</v>
       </c>
       <c r="AB4" t="n">
-        <v>1677.408805690376</v>
+        <v>1946.035442364434</v>
       </c>
       <c r="AC4" t="n">
-        <v>1517.319263533331</v>
+        <v>1760.30855102307</v>
       </c>
       <c r="AD4" t="n">
-        <v>1225957.257910623</v>
+        <v>1422286.723799614</v>
       </c>
       <c r="AE4" t="n">
-        <v>1677408.805690376</v>
+        <v>1946035.442364434</v>
       </c>
       <c r="AF4" t="n">
         <v>5.939285018677829e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.35833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1517319.263533331</v>
+        <v>1760308.55102307</v>
       </c>
     </row>
     <row r="5">
@@ -7421,28 +7421,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1233.119899422241</v>
+        <v>1429.449365311232</v>
       </c>
       <c r="AB5" t="n">
-        <v>1687.209047800014</v>
+        <v>1955.835684474072</v>
       </c>
       <c r="AC5" t="n">
-        <v>1526.184184290751</v>
+        <v>1769.17347178049</v>
       </c>
       <c r="AD5" t="n">
-        <v>1233119.899422241</v>
+        <v>1429449.365311232</v>
       </c>
       <c r="AE5" t="n">
-        <v>1687209.047800014</v>
+        <v>1955835.684474072</v>
       </c>
       <c r="AF5" t="n">
         <v>5.938709729543901e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.3625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1526184.184290751</v>
+        <v>1769173.47178049</v>
       </c>
     </row>
   </sheetData>
@@ -7718,28 +7718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2871.968950105284</v>
+        <v>3165.894458669349</v>
       </c>
       <c r="AB2" t="n">
-        <v>3929.554619862151</v>
+        <v>4331.716467757795</v>
       </c>
       <c r="AC2" t="n">
-        <v>3554.523442106906</v>
+        <v>3918.303527677074</v>
       </c>
       <c r="AD2" t="n">
-        <v>2871968.950105283</v>
+        <v>3165894.458669349</v>
       </c>
       <c r="AE2" t="n">
-        <v>3929554.619862151</v>
+        <v>4331716.467757795</v>
       </c>
       <c r="AF2" t="n">
         <v>3.427615625258102e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3554523.442106906</v>
+        <v>3918303.527677074</v>
       </c>
     </row>
     <row r="3">
@@ -7824,28 +7824,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1718.725838999008</v>
+        <v>1936.790786535242</v>
       </c>
       <c r="AB3" t="n">
-        <v>2351.636517751011</v>
+        <v>2650.002599316601</v>
       </c>
       <c r="AC3" t="n">
-        <v>2127.199629039436</v>
+        <v>2397.090070539832</v>
       </c>
       <c r="AD3" t="n">
-        <v>1718725.838999008</v>
+        <v>1936790.786535242</v>
       </c>
       <c r="AE3" t="n">
-        <v>2351636.517751011</v>
+        <v>2650002.599316601</v>
       </c>
       <c r="AF3" t="n">
         <v>4.635252293226945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.78333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2127199.629039436</v>
+        <v>2397090.070539832</v>
       </c>
     </row>
     <row r="4">
@@ -7930,28 +7930,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1461.551347890732</v>
+        <v>1660.583835362303</v>
       </c>
       <c r="AB4" t="n">
-        <v>1999.759033278862</v>
+        <v>2272.084063331104</v>
       </c>
       <c r="AC4" t="n">
-        <v>1808.904837822158</v>
+        <v>2055.239549216793</v>
       </c>
       <c r="AD4" t="n">
-        <v>1461551.347890732</v>
+        <v>1660583.835362304</v>
       </c>
       <c r="AE4" t="n">
-        <v>1999759.033278862</v>
+        <v>2272084.063331103</v>
       </c>
       <c r="AF4" t="n">
         <v>5.055733047255701e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.05833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1808904.837822158</v>
+        <v>2055239.549216793</v>
       </c>
     </row>
     <row r="5">
@@ -8036,28 +8036,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1330.098516600439</v>
+        <v>1519.749919170016</v>
       </c>
       <c r="AB5" t="n">
-        <v>1819.89947021786</v>
+        <v>2079.388886042936</v>
       </c>
       <c r="AC5" t="n">
-        <v>1646.210819025215</v>
+        <v>1880.934929199629</v>
       </c>
       <c r="AD5" t="n">
-        <v>1330098.516600439</v>
+        <v>1519749.919170016</v>
       </c>
       <c r="AE5" t="n">
-        <v>1819899.47021786</v>
+        <v>2079388.886042936</v>
       </c>
       <c r="AF5" t="n">
         <v>5.252522025740723e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.52083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1646210.819025215</v>
+        <v>1880934.929199629</v>
       </c>
     </row>
     <row r="6">
@@ -8142,28 +8142,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1321.384305163436</v>
+        <v>1510.934222506529</v>
       </c>
       <c r="AB6" t="n">
-        <v>1807.976301685878</v>
+        <v>2067.326860946865</v>
       </c>
       <c r="AC6" t="n">
-        <v>1635.425580963654</v>
+        <v>1870.024086849568</v>
       </c>
       <c r="AD6" t="n">
-        <v>1321384.305163437</v>
+        <v>1510934.222506529</v>
       </c>
       <c r="AE6" t="n">
-        <v>1807976.301685878</v>
+        <v>2067326.860946865</v>
       </c>
       <c r="AF6" t="n">
         <v>5.276435623126244e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.34166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1635425.580963654</v>
+        <v>1870024.086849568</v>
       </c>
     </row>
     <row r="7">
@@ -8248,28 +8248,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1327.239630292451</v>
+        <v>1516.789547635544</v>
       </c>
       <c r="AB7" t="n">
-        <v>1815.987815846109</v>
+        <v>2075.338375107096</v>
       </c>
       <c r="AC7" t="n">
-        <v>1642.672487456663</v>
+        <v>1877.270993342578</v>
       </c>
       <c r="AD7" t="n">
-        <v>1327239.630292451</v>
+        <v>1516789.547635544</v>
       </c>
       <c r="AE7" t="n">
-        <v>1815987.81584611</v>
+        <v>2075338.375107097</v>
       </c>
       <c r="AF7" t="n">
         <v>5.275439223235181e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>39.35</v>
       </c>
       <c r="AH7" t="n">
-        <v>1642672.487456663</v>
+        <v>1877270.993342578</v>
       </c>
     </row>
   </sheetData>
@@ -8545,28 +8545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1465.707730971402</v>
+        <v>1687.636082333169</v>
       </c>
       <c r="AB2" t="n">
-        <v>2005.445979976515</v>
+        <v>2309.098141097547</v>
       </c>
       <c r="AC2" t="n">
-        <v>1814.049030308666</v>
+        <v>2088.721055350792</v>
       </c>
       <c r="AD2" t="n">
-        <v>1465707.730971402</v>
+        <v>1687636.082333169</v>
       </c>
       <c r="AE2" t="n">
-        <v>2005445.979976515</v>
+        <v>2309098.141097547</v>
       </c>
       <c r="AF2" t="n">
         <v>5.8254695529157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.12916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1814049.030308666</v>
+        <v>2088721.055350792</v>
       </c>
     </row>
     <row r="3">
@@ -8651,28 +8651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1163.203146492735</v>
+        <v>1366.662165861071</v>
       </c>
       <c r="AB3" t="n">
-        <v>1591.545861932418</v>
+        <v>1869.927468210617</v>
       </c>
       <c r="AC3" t="n">
-        <v>1439.650958618234</v>
+        <v>1691.46421510428</v>
       </c>
       <c r="AD3" t="n">
-        <v>1163203.146492735</v>
+        <v>1366662.165861071</v>
       </c>
       <c r="AE3" t="n">
-        <v>1591545.861932418</v>
+        <v>1869927.468210617</v>
       </c>
       <c r="AF3" t="n">
         <v>6.569384848158526e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.79166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1439650.958618234</v>
+        <v>1691464.21510428</v>
       </c>
     </row>
     <row r="4">
@@ -8757,28 +8757,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1169.174274158891</v>
+        <v>1372.633293527228</v>
       </c>
       <c r="AB4" t="n">
-        <v>1599.715822232815</v>
+        <v>1878.097428511014</v>
       </c>
       <c r="AC4" t="n">
-        <v>1447.041189374172</v>
+        <v>1698.854445860218</v>
       </c>
       <c r="AD4" t="n">
-        <v>1169174.274158891</v>
+        <v>1372633.293527228</v>
       </c>
       <c r="AE4" t="n">
-        <v>1599715.822232815</v>
+        <v>1878097.428511014</v>
       </c>
       <c r="AF4" t="n">
         <v>6.573997254772078e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.7625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1447041.189374172</v>
+        <v>1698854.445860218</v>
       </c>
     </row>
   </sheetData>
@@ -9054,28 +9054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6313.426224382155</v>
+        <v>6750.225519573018</v>
       </c>
       <c r="AB2" t="n">
-        <v>8638.308288907609</v>
+        <v>9235.956354812659</v>
       </c>
       <c r="AC2" t="n">
-        <v>7813.880269755769</v>
+        <v>8354.489643055151</v>
       </c>
       <c r="AD2" t="n">
-        <v>6313426.224382155</v>
+        <v>6750225.519573018</v>
       </c>
       <c r="AE2" t="n">
-        <v>8638308.288907608</v>
+        <v>9235956.354812659</v>
       </c>
       <c r="AF2" t="n">
         <v>1.926966318335481e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>87</v>
+        <v>86.97500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>7813880.26975577</v>
+        <v>8354489.64305515</v>
       </c>
     </row>
     <row r="3">
@@ -9160,28 +9160,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2698.707659227357</v>
+        <v>2951.072485589149</v>
       </c>
       <c r="AB3" t="n">
-        <v>3692.490877934274</v>
+        <v>4037.78756691287</v>
       </c>
       <c r="AC3" t="n">
-        <v>3340.084730987583</v>
+        <v>3652.426788596995</v>
       </c>
       <c r="AD3" t="n">
-        <v>2698707.659227357</v>
+        <v>2951072.485589149</v>
       </c>
       <c r="AE3" t="n">
-        <v>3692490.877934274</v>
+        <v>4037787.56691287</v>
       </c>
       <c r="AF3" t="n">
         <v>3.220056845041507e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.04583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3340084.730987583</v>
+        <v>3652426.788596995</v>
       </c>
     </row>
     <row r="4">
@@ -9266,28 +9266,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2159.695536969627</v>
+        <v>2382.899411816161</v>
       </c>
       <c r="AB4" t="n">
-        <v>2954.990712724477</v>
+        <v>3260.388101349678</v>
       </c>
       <c r="AC4" t="n">
-        <v>2672.970546457566</v>
+        <v>2949.221236940182</v>
       </c>
       <c r="AD4" t="n">
-        <v>2159695.536969627</v>
+        <v>2382899.411816161</v>
       </c>
       <c r="AE4" t="n">
-        <v>2954990.712724477</v>
+        <v>3260388.101349678</v>
       </c>
       <c r="AF4" t="n">
         <v>3.686615168829684e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.45833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2672970.546457566</v>
+        <v>2949221.236940182</v>
       </c>
     </row>
     <row r="5">
@@ -9372,28 +9372,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1931.22568675754</v>
+        <v>2144.787952712948</v>
       </c>
       <c r="AB5" t="n">
-        <v>2642.388184285875</v>
+        <v>2934.593498268288</v>
       </c>
       <c r="AC5" t="n">
-        <v>2390.202364592739</v>
+        <v>2654.520013521405</v>
       </c>
       <c r="AD5" t="n">
-        <v>1931225.68675754</v>
+        <v>2144787.952712948</v>
       </c>
       <c r="AE5" t="n">
-        <v>2642388.184285875</v>
+        <v>2934593.498268288</v>
       </c>
       <c r="AF5" t="n">
         <v>3.931558288818477e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2390202.364592739</v>
+        <v>2654520.013521405</v>
       </c>
     </row>
     <row r="6">
@@ -9478,19 +9478,19 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1790.155033770251</v>
+        <v>2003.648968888097</v>
       </c>
       <c r="AB6" t="n">
-        <v>2449.369093270696</v>
+        <v>2741.480913986613</v>
       </c>
       <c r="AC6" t="n">
-        <v>2215.604744720054</v>
+        <v>2479.837823248359</v>
       </c>
       <c r="AD6" t="n">
-        <v>1790155.033770251</v>
+        <v>2003648.968888097</v>
       </c>
       <c r="AE6" t="n">
-        <v>2449369.093270696</v>
+        <v>2741480.913986613</v>
       </c>
       <c r="AF6" t="n">
         <v>4.087614004016592e-06</v>
@@ -9499,7 +9499,7 @@
         <v>41</v>
       </c>
       <c r="AH6" t="n">
-        <v>2215604.744720053</v>
+        <v>2479837.823248359</v>
       </c>
     </row>
     <row r="7">
@@ -9584,28 +9584,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1709.453206901954</v>
+        <v>1903.564461070785</v>
       </c>
       <c r="AB7" t="n">
-        <v>2338.949293436165</v>
+        <v>2604.540874974106</v>
       </c>
       <c r="AC7" t="n">
-        <v>2115.723255606568</v>
+        <v>2355.967149362653</v>
       </c>
       <c r="AD7" t="n">
-        <v>1709453.206901954</v>
+        <v>1903564.461070785</v>
       </c>
       <c r="AE7" t="n">
-        <v>2338949.293436165</v>
+        <v>2604540.874974106</v>
       </c>
       <c r="AF7" t="n">
         <v>4.188165366901974e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>40.0125</v>
       </c>
       <c r="AH7" t="n">
-        <v>2115723.255606568</v>
+        <v>2355967.149362653</v>
       </c>
     </row>
     <row r="8">
@@ -9690,28 +9690,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1630.243795575944</v>
+        <v>1824.320884325995</v>
       </c>
       <c r="AB8" t="n">
-        <v>2230.571482387319</v>
+        <v>2496.116317292012</v>
       </c>
       <c r="AC8" t="n">
-        <v>2017.68887073501</v>
+        <v>2257.890479290916</v>
       </c>
       <c r="AD8" t="n">
-        <v>1630243.795575944</v>
+        <v>1824320.884325995</v>
       </c>
       <c r="AE8" t="n">
-        <v>2230571.482387319</v>
+        <v>2496116.317292012</v>
       </c>
       <c r="AF8" t="n">
         <v>4.267399840855656e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>39.27083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2017688.87073501</v>
+        <v>2257890.479290916</v>
       </c>
     </row>
     <row r="9">
@@ -9796,28 +9796,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1565.113647053558</v>
+        <v>1759.258055611312</v>
       </c>
       <c r="AB9" t="n">
-        <v>2141.457539839626</v>
+        <v>2407.09448467516</v>
       </c>
       <c r="AC9" t="n">
-        <v>1937.079837791865</v>
+        <v>2177.36476543609</v>
       </c>
       <c r="AD9" t="n">
-        <v>1565113.647053557</v>
+        <v>1759258.055611312</v>
       </c>
       <c r="AE9" t="n">
-        <v>2141457.539839626</v>
+        <v>2407094.484675161</v>
       </c>
       <c r="AF9" t="n">
         <v>4.321295371362222e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>39</v>
+        <v>38.78333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1937079.837791865</v>
+        <v>2177364.76543609</v>
       </c>
     </row>
     <row r="10">
@@ -9902,28 +9902,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1529.081421213474</v>
+        <v>1723.124344544743</v>
       </c>
       <c r="AB10" t="n">
-        <v>2092.15665881561</v>
+        <v>2357.654747087055</v>
       </c>
       <c r="AC10" t="n">
-        <v>1892.48416365856</v>
+        <v>2132.643487014285</v>
       </c>
       <c r="AD10" t="n">
-        <v>1529081.421213473</v>
+        <v>1723124.344544743</v>
       </c>
       <c r="AE10" t="n">
-        <v>2092156.65881561</v>
+        <v>2357654.747087055</v>
       </c>
       <c r="AF10" t="n">
         <v>4.354678423840169e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>39</v>
+        <v>38.48333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1892484.16365856</v>
+        <v>2132643.487014285</v>
       </c>
     </row>
     <row r="11">
@@ -10008,28 +10008,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1529.229269585552</v>
+        <v>1723.272192916821</v>
       </c>
       <c r="AB11" t="n">
-        <v>2092.358951480897</v>
+        <v>2357.857039752342</v>
       </c>
       <c r="AC11" t="n">
-        <v>1892.667149795792</v>
+        <v>2132.826473151517</v>
       </c>
       <c r="AD11" t="n">
-        <v>1529229.269585552</v>
+        <v>1723272.192916821</v>
       </c>
       <c r="AE11" t="n">
-        <v>2092358.951480897</v>
+        <v>2357857.039752342</v>
       </c>
       <c r="AF11" t="n">
         <v>4.360711505613292e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>39</v>
+        <v>38.43333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1892667.149795792</v>
+        <v>2132826.473151517</v>
       </c>
     </row>
     <row r="12">
@@ -10114,28 +10114,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1535.369197648566</v>
+        <v>1729.412120979835</v>
       </c>
       <c r="AB12" t="n">
-        <v>2100.759871931221</v>
+        <v>2366.257960202667</v>
       </c>
       <c r="AC12" t="n">
-        <v>1900.266298189103</v>
+        <v>2140.425621544829</v>
       </c>
       <c r="AD12" t="n">
-        <v>1535369.197648566</v>
+        <v>1729412.120979835</v>
       </c>
       <c r="AE12" t="n">
-        <v>2100759.871931221</v>
+        <v>2366257.960202667</v>
       </c>
       <c r="AF12" t="n">
         <v>4.359907094710209e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>39</v>
+        <v>38.4375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1900266.298189103</v>
+        <v>2140425.621544829</v>
       </c>
     </row>
   </sheetData>
@@ -10411,28 +10411,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1220.91707346217</v>
+        <v>1432.241830395345</v>
       </c>
       <c r="AB2" t="n">
-        <v>1670.512602970759</v>
+        <v>1959.65645839702</v>
       </c>
       <c r="AC2" t="n">
-        <v>1511.081224722392</v>
+        <v>1772.629596402722</v>
       </c>
       <c r="AD2" t="n">
-        <v>1220917.07346217</v>
+        <v>1432241.830395345</v>
       </c>
       <c r="AE2" t="n">
-        <v>1670512.602970759</v>
+        <v>1959656.45839702</v>
       </c>
       <c r="AF2" t="n">
         <v>6.716599072951427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.725</v>
       </c>
       <c r="AH2" t="n">
-        <v>1511081.224722392</v>
+        <v>1772629.596402721</v>
       </c>
     </row>
     <row r="3">
@@ -10517,28 +10517,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1145.189739941992</v>
+        <v>1347.257658704334</v>
       </c>
       <c r="AB3" t="n">
-        <v>1566.899124394282</v>
+        <v>1843.377365452332</v>
       </c>
       <c r="AC3" t="n">
-        <v>1417.356471118824</v>
+        <v>1667.448016889942</v>
       </c>
       <c r="AD3" t="n">
-        <v>1145189.739941992</v>
+        <v>1347257.658704334</v>
       </c>
       <c r="AE3" t="n">
-        <v>1566899.124394282</v>
+        <v>1843377.365452332</v>
       </c>
       <c r="AF3" t="n">
         <v>6.985522586713867e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.00416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1417356.471118824</v>
+        <v>1667448.016889942</v>
       </c>
     </row>
   </sheetData>
@@ -10814,28 +10814,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4025.035735854686</v>
+        <v>4370.084061418771</v>
       </c>
       <c r="AB2" t="n">
-        <v>5507.231465840956</v>
+        <v>5979.34180733554</v>
       </c>
       <c r="AC2" t="n">
-        <v>4981.629024188795</v>
+        <v>5408.681817302145</v>
       </c>
       <c r="AD2" t="n">
-        <v>4025035.735854686</v>
+        <v>4370084.061418771</v>
       </c>
       <c r="AE2" t="n">
-        <v>5507231.465840956</v>
+        <v>5979341.80733554</v>
       </c>
       <c r="AF2" t="n">
         <v>2.660784005881392e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.18333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4981629.024188795</v>
+        <v>5408681.817302145</v>
       </c>
     </row>
     <row r="3">
@@ -10920,28 +10920,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2117.598132571339</v>
+        <v>2357.240896323606</v>
       </c>
       <c r="AB3" t="n">
-        <v>2897.391186820332</v>
+        <v>3225.280988478951</v>
       </c>
       <c r="AC3" t="n">
-        <v>2620.868238464269</v>
+        <v>2917.464697648695</v>
       </c>
       <c r="AD3" t="n">
-        <v>2117598.132571339</v>
+        <v>2357240.896323606</v>
       </c>
       <c r="AE3" t="n">
-        <v>2897391.186820332</v>
+        <v>3225280.988478951</v>
       </c>
       <c r="AF3" t="n">
         <v>3.907592344160326e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.7875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2620868.238464269</v>
+        <v>2917464.697648695</v>
       </c>
     </row>
     <row r="4">
@@ -11026,28 +11026,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1755.463548000162</v>
+        <v>1975.89525876646</v>
       </c>
       <c r="AB4" t="n">
-        <v>2401.902671959724</v>
+        <v>2703.507063390912</v>
       </c>
       <c r="AC4" t="n">
-        <v>2172.66845203946</v>
+        <v>2445.488143656877</v>
       </c>
       <c r="AD4" t="n">
-        <v>1755463.548000162</v>
+        <v>1975895.25876646</v>
       </c>
       <c r="AE4" t="n">
-        <v>2401902.671959724</v>
+        <v>2703507.063390912</v>
       </c>
       <c r="AF4" t="n">
         <v>4.350832260248704e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.92083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2172668.45203946</v>
+        <v>2445488.143656877</v>
       </c>
     </row>
     <row r="5">
@@ -11132,28 +11132,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1584.706245578761</v>
+        <v>1786.029399615434</v>
       </c>
       <c r="AB5" t="n">
-        <v>2168.264997506253</v>
+        <v>2443.724218609942</v>
       </c>
       <c r="AC5" t="n">
-        <v>1961.328829323292</v>
+        <v>2210.498608974291</v>
       </c>
       <c r="AD5" t="n">
-        <v>1584706.245578761</v>
+        <v>1786029.399615434</v>
       </c>
       <c r="AE5" t="n">
-        <v>2168264.997506253</v>
+        <v>2443724.218609942</v>
       </c>
       <c r="AF5" t="n">
         <v>4.585225057128604e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.725</v>
       </c>
       <c r="AH5" t="n">
-        <v>1961328.829323292</v>
+        <v>2210498.608974291</v>
       </c>
     </row>
     <row r="6">
@@ -11238,28 +11238,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1474.41008965081</v>
+        <v>1666.178965322671</v>
       </c>
       <c r="AB6" t="n">
-        <v>2017.35293104265</v>
+        <v>2279.739566982591</v>
       </c>
       <c r="AC6" t="n">
-        <v>1824.819598676561</v>
+        <v>2062.16442234435</v>
       </c>
       <c r="AD6" t="n">
-        <v>1474410.08965081</v>
+        <v>1666178.965322671</v>
       </c>
       <c r="AE6" t="n">
-        <v>2017352.93104265</v>
+        <v>2279739.566982592</v>
       </c>
       <c r="AF6" t="n">
         <v>4.725054029645868e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.52083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1824819.598676561</v>
+        <v>2062164.42234435</v>
       </c>
     </row>
     <row r="7">
@@ -11344,28 +11344,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1409.348849133256</v>
+        <v>1601.083559386337</v>
       </c>
       <c r="AB7" t="n">
-        <v>1928.333271467178</v>
+        <v>2190.673160773871</v>
       </c>
       <c r="AC7" t="n">
-        <v>1744.295850471094</v>
+        <v>1981.598388938703</v>
       </c>
       <c r="AD7" t="n">
-        <v>1409348.849133256</v>
+        <v>1601083.559386337</v>
       </c>
       <c r="AE7" t="n">
-        <v>1928333.271467178</v>
+        <v>2190673.160773871</v>
       </c>
       <c r="AF7" t="n">
         <v>4.7998983835253e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>39</v>
+        <v>38.90416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1744295.850471094</v>
+        <v>1981598.388938703</v>
       </c>
     </row>
     <row r="8">
@@ -11450,28 +11450,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1402.701522088565</v>
+        <v>1594.436232341646</v>
       </c>
       <c r="AB8" t="n">
-        <v>1919.23810534526</v>
+        <v>2181.577994651952</v>
       </c>
       <c r="AC8" t="n">
-        <v>1736.068714238706</v>
+        <v>1973.371252706315</v>
       </c>
       <c r="AD8" t="n">
-        <v>1402701.522088565</v>
+        <v>1594436.232341646</v>
       </c>
       <c r="AE8" t="n">
-        <v>1919238.10534526</v>
+        <v>2181577.994651952</v>
       </c>
       <c r="AF8" t="n">
         <v>4.811550797901739e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>39</v>
+        <v>38.80833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1736068.714238706</v>
+        <v>1973371.252706315</v>
       </c>
     </row>
     <row r="9">
@@ -11556,28 +11556,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1409.069398757875</v>
+        <v>1600.804109010954</v>
       </c>
       <c r="AB9" t="n">
-        <v>1927.950915135099</v>
+        <v>2190.290804441792</v>
       </c>
       <c r="AC9" t="n">
-        <v>1743.949985690709</v>
+        <v>1981.252524158318</v>
       </c>
       <c r="AD9" t="n">
-        <v>1409069.398757875</v>
+        <v>1600804.109010954</v>
       </c>
       <c r="AE9" t="n">
-        <v>1927950.915135099</v>
+        <v>2190290.804441792</v>
       </c>
       <c r="AF9" t="n">
         <v>4.811998967685449e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>39</v>
+        <v>38.80833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1743949.985690709</v>
+        <v>1981252.524158318</v>
       </c>
     </row>
   </sheetData>
@@ -11853,28 +11853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5026.891037872342</v>
+        <v>5422.449083967847</v>
       </c>
       <c r="AB2" t="n">
-        <v>6878.014088798128</v>
+        <v>7419.234058255407</v>
       </c>
       <c r="AC2" t="n">
-        <v>6221.586077516376</v>
+        <v>6711.152772695632</v>
       </c>
       <c r="AD2" t="n">
-        <v>5026891.037872342</v>
+        <v>5422449.083967848</v>
       </c>
       <c r="AE2" t="n">
-        <v>6878014.088798128</v>
+        <v>7419234.058255407</v>
       </c>
       <c r="AF2" t="n">
         <v>2.262379690640774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.90833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6221586.077516376</v>
+        <v>6711152.772695632</v>
       </c>
     </row>
     <row r="3">
@@ -11959,28 +11959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2393.805436985173</v>
+        <v>2644.665457416791</v>
       </c>
       <c r="AB3" t="n">
-        <v>3275.310206125796</v>
+        <v>3618.547953243375</v>
       </c>
       <c r="AC3" t="n">
-        <v>2962.719196979771</v>
+        <v>3273.19881524964</v>
       </c>
       <c r="AD3" t="n">
-        <v>2393805.436985173</v>
+        <v>2644665.457416791</v>
       </c>
       <c r="AE3" t="n">
-        <v>3275310.206125796</v>
+        <v>3618547.953243375</v>
       </c>
       <c r="AF3" t="n">
         <v>3.536554639819908e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.8375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2962719.196979771</v>
+        <v>3273198.81524964</v>
       </c>
     </row>
     <row r="4">
@@ -12065,28 +12065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1960.998776799953</v>
+        <v>2173.255446527708</v>
       </c>
       <c r="AB4" t="n">
-        <v>2683.125039577936</v>
+        <v>2973.543979202832</v>
       </c>
       <c r="AC4" t="n">
-        <v>2427.051351590262</v>
+        <v>2689.7531152229</v>
       </c>
       <c r="AD4" t="n">
-        <v>1960998.776799954</v>
+        <v>2173255.446527708</v>
       </c>
       <c r="AE4" t="n">
-        <v>2683125.039577936</v>
+        <v>2973543.979202833</v>
       </c>
       <c r="AF4" t="n">
         <v>3.99004585679203e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.175</v>
       </c>
       <c r="AH4" t="n">
-        <v>2427051.351590262</v>
+        <v>2689753.1152229</v>
       </c>
     </row>
     <row r="5">
@@ -12171,28 +12171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1761.081663782823</v>
+        <v>1973.33732248072</v>
       </c>
       <c r="AB5" t="n">
-        <v>2409.589625827336</v>
+        <v>2700.007182116579</v>
       </c>
       <c r="AC5" t="n">
-        <v>2179.621773818655</v>
+        <v>2442.322286139253</v>
       </c>
       <c r="AD5" t="n">
-        <v>1761081.663782823</v>
+        <v>1973337.32248072</v>
       </c>
       <c r="AE5" t="n">
-        <v>2409589.625827337</v>
+        <v>2700007.182116579</v>
       </c>
       <c r="AF5" t="n">
         <v>4.226944253717765e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.7</v>
       </c>
       <c r="AH5" t="n">
-        <v>2179621.773818655</v>
+        <v>2442322.286139253</v>
       </c>
     </row>
     <row r="6">
@@ -12277,28 +12277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1645.961860618837</v>
+        <v>1848.4991090756</v>
       </c>
       <c r="AB6" t="n">
-        <v>2252.077632411094</v>
+        <v>2529.198031062416</v>
       </c>
       <c r="AC6" t="n">
-        <v>2037.142503984588</v>
+        <v>2287.81492072955</v>
       </c>
       <c r="AD6" t="n">
-        <v>1645961.860618837</v>
+        <v>1848499.1090756</v>
       </c>
       <c r="AE6" t="n">
-        <v>2252077.632411094</v>
+        <v>2529198.031062416</v>
       </c>
       <c r="AF6" t="n">
         <v>4.37500575179635e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>41</v>
+        <v>40.29166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2037142.503984588</v>
+        <v>2287814.92072955</v>
       </c>
     </row>
     <row r="7">
@@ -12383,28 +12383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1559.974841704751</v>
+        <v>1752.895165146865</v>
       </c>
       <c r="AB7" t="n">
-        <v>2134.426399653298</v>
+        <v>2398.388497230789</v>
       </c>
       <c r="AC7" t="n">
-        <v>1930.719739756653</v>
+        <v>2169.489665214479</v>
       </c>
       <c r="AD7" t="n">
-        <v>1559974.841704751</v>
+        <v>1752895.165146865</v>
       </c>
       <c r="AE7" t="n">
-        <v>2134426.399653298</v>
+        <v>2398388.497230789</v>
       </c>
       <c r="AF7" t="n">
         <v>4.475687570489787e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>39.38333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1930719.739756653</v>
+        <v>2169489.665214479</v>
       </c>
     </row>
     <row r="8">
@@ -12489,28 +12489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1480.789973902975</v>
+        <v>1673.777617152793</v>
       </c>
       <c r="AB8" t="n">
-        <v>2026.082170137091</v>
+        <v>2290.136377645424</v>
       </c>
       <c r="AC8" t="n">
-        <v>1832.715731443393</v>
+        <v>2071.568975989537</v>
       </c>
       <c r="AD8" t="n">
-        <v>1480789.973902975</v>
+        <v>1673777.617152793</v>
       </c>
       <c r="AE8" t="n">
-        <v>2026082.170137092</v>
+        <v>2290136.377645424</v>
       </c>
       <c r="AF8" t="n">
         <v>4.54844922097412e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>39</v>
+        <v>38.75416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1832715.731443393</v>
+        <v>2071568.975989537</v>
       </c>
     </row>
     <row r="9">
@@ -12595,28 +12595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1465.611832140212</v>
+        <v>1658.59947539003</v>
       </c>
       <c r="AB9" t="n">
-        <v>2005.314766964923</v>
+        <v>2269.368974473255</v>
       </c>
       <c r="AC9" t="n">
-        <v>1813.930340082742</v>
+        <v>2052.783584628887</v>
       </c>
       <c r="AD9" t="n">
-        <v>1465611.832140212</v>
+        <v>1658599.47539003</v>
       </c>
       <c r="AE9" t="n">
-        <v>2005314.766964923</v>
+        <v>2269368.974473255</v>
       </c>
       <c r="AF9" t="n">
         <v>4.564101436485285e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>39</v>
+        <v>38.62083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1813930.340082742</v>
+        <v>2052783.584628887</v>
       </c>
     </row>
     <row r="10">
@@ -12701,28 +12701,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1469.277103234652</v>
+        <v>1662.264746484471</v>
       </c>
       <c r="AB10" t="n">
-        <v>2010.329752576685</v>
+        <v>2274.383960085017</v>
       </c>
       <c r="AC10" t="n">
-        <v>1818.466702506294</v>
+        <v>2057.319947052439</v>
       </c>
       <c r="AD10" t="n">
-        <v>1469277.103234652</v>
+        <v>1662264.746484471</v>
       </c>
       <c r="AE10" t="n">
-        <v>2010329.752576685</v>
+        <v>2274383.960085017</v>
       </c>
       <c r="AF10" t="n">
         <v>4.56748569929851e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>39</v>
+        <v>38.59166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1818466.702506294</v>
+        <v>2057319.947052439</v>
       </c>
     </row>
   </sheetData>
@@ -12998,28 +12998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8026.716350033222</v>
+        <v>8524.484272173431</v>
       </c>
       <c r="AB2" t="n">
-        <v>10982.50742384935</v>
+        <v>11663.57545489249</v>
       </c>
       <c r="AC2" t="n">
-        <v>9934.352329362735</v>
+        <v>10550.42018340808</v>
       </c>
       <c r="AD2" t="n">
-        <v>8026716.350033222</v>
+        <v>8524484.272173431</v>
       </c>
       <c r="AE2" t="n">
-        <v>10982507.42384935</v>
+        <v>11663575.45489249</v>
       </c>
       <c r="AF2" t="n">
         <v>1.635530972891638e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>98</v>
+        <v>97.96666666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>9934352.329362735</v>
+        <v>10550420.18340808</v>
       </c>
     </row>
     <row r="3">
@@ -13104,28 +13104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3023.32128583623</v>
+        <v>3296.545014540558</v>
       </c>
       <c r="AB3" t="n">
-        <v>4136.641562803044</v>
+        <v>4510.478322196524</v>
       </c>
       <c r="AC3" t="n">
-        <v>3741.846297861862</v>
+        <v>4080.004601622001</v>
       </c>
       <c r="AD3" t="n">
-        <v>3023321.28583623</v>
+        <v>3296545.014540558</v>
       </c>
       <c r="AE3" t="n">
-        <v>4136641.562803044</v>
+        <v>4510478.322196524</v>
       </c>
       <c r="AF3" t="n">
         <v>2.941879130642143e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.46666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3741846.297861862</v>
+        <v>4080004.601622001</v>
       </c>
     </row>
     <row r="4">
@@ -13210,28 +13210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2364.195218067982</v>
+        <v>2598.46909209171</v>
       </c>
       <c r="AB4" t="n">
-        <v>3234.796198292629</v>
+        <v>3555.340048165795</v>
       </c>
       <c r="AC4" t="n">
-        <v>2926.071789192437</v>
+        <v>3216.023383919815</v>
       </c>
       <c r="AD4" t="n">
-        <v>2364195.218067982</v>
+        <v>2598469.09209171</v>
       </c>
       <c r="AE4" t="n">
-        <v>3234796.198292629</v>
+        <v>3555340.048165795</v>
       </c>
       <c r="AF4" t="n">
         <v>3.424116572449364e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.79583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2926071.789192437</v>
+        <v>3216023.383919816</v>
       </c>
     </row>
     <row r="5">
@@ -13316,28 +13316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2104.670796916774</v>
+        <v>2329.147670544952</v>
       </c>
       <c r="AB5" t="n">
-        <v>2879.703435863958</v>
+        <v>3186.842597582944</v>
       </c>
       <c r="AC5" t="n">
-        <v>2604.868581634258</v>
+        <v>2882.694812831185</v>
       </c>
       <c r="AD5" t="n">
-        <v>2104670.796916774</v>
+        <v>2329147.670544952</v>
       </c>
       <c r="AE5" t="n">
-        <v>2879703.435863958</v>
+        <v>3186842.597582944</v>
       </c>
       <c r="AF5" t="n">
         <v>3.674080158713076e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.6125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2604868.581634258</v>
+        <v>2882694.812831185</v>
       </c>
     </row>
     <row r="6">
@@ -13422,28 +13422,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1947.442431551968</v>
+        <v>2162.156470203372</v>
       </c>
       <c r="AB6" t="n">
-        <v>2664.576649945898</v>
+        <v>2958.357870143599</v>
       </c>
       <c r="AC6" t="n">
-        <v>2410.273194231877</v>
+        <v>2676.016347098442</v>
       </c>
       <c r="AD6" t="n">
-        <v>1947442.431551968</v>
+        <v>2162156.470203372</v>
       </c>
       <c r="AE6" t="n">
-        <v>2664576.649945898</v>
+        <v>2958357.870143599</v>
       </c>
       <c r="AF6" t="n">
         <v>3.835979650739264e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.77083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2410273.194231878</v>
+        <v>2676016.347098442</v>
       </c>
     </row>
     <row r="7">
@@ -13528,28 +13528,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1852.176299647534</v>
+        <v>2057.161668740948</v>
       </c>
       <c r="AB7" t="n">
-        <v>2534.229325429135</v>
+        <v>2814.699350738983</v>
       </c>
       <c r="AC7" t="n">
-        <v>2292.366035423375</v>
+        <v>2546.068395159804</v>
       </c>
       <c r="AD7" t="n">
-        <v>1852176.299647534</v>
+        <v>2057161.668740948</v>
       </c>
       <c r="AE7" t="n">
-        <v>2534229.325429135</v>
+        <v>2814699.350738984</v>
       </c>
       <c r="AF7" t="n">
         <v>3.938657000789127e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>40.68333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2292366.035423375</v>
+        <v>2546068.395159804</v>
       </c>
     </row>
     <row r="8">
@@ -13634,28 +13634,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1763.918989718692</v>
+        <v>1968.870193393326</v>
       </c>
       <c r="AB8" t="n">
-        <v>2413.471780346778</v>
+        <v>2693.895059023379</v>
       </c>
       <c r="AC8" t="n">
-        <v>2183.1334209594</v>
+        <v>2436.793495495649</v>
       </c>
       <c r="AD8" t="n">
-        <v>1763918.989718692</v>
+        <v>1968870.193393325</v>
       </c>
       <c r="AE8" t="n">
-        <v>2413471.780346778</v>
+        <v>2693895.059023379</v>
       </c>
       <c r="AF8" t="n">
         <v>4.022106382664859e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>39.8375</v>
       </c>
       <c r="AH8" t="n">
-        <v>2183133.4209594</v>
+        <v>2436793.495495649</v>
       </c>
     </row>
     <row r="9">
@@ -13740,28 +13740,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1709.052283542864</v>
+        <v>1904.207497851803</v>
       </c>
       <c r="AB9" t="n">
-        <v>2338.400732408767</v>
+        <v>2605.420706266675</v>
       </c>
       <c r="AC9" t="n">
-        <v>2115.227048473715</v>
+        <v>2356.763010791511</v>
       </c>
       <c r="AD9" t="n">
-        <v>1709052.283542864</v>
+        <v>1904207.497851803</v>
       </c>
       <c r="AE9" t="n">
-        <v>2338400.732408768</v>
+        <v>2605420.706266675</v>
       </c>
       <c r="AF9" t="n">
         <v>4.080559405914218e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>39.26666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2115227.048473715</v>
+        <v>2356763.010791511</v>
       </c>
     </row>
     <row r="10">
@@ -13846,28 +13846,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1650.502085319615</v>
+        <v>1845.724619436258</v>
       </c>
       <c r="AB10" t="n">
-        <v>2258.289768147275</v>
+        <v>2525.401851936024</v>
       </c>
       <c r="AC10" t="n">
-        <v>2042.761762204895</v>
+        <v>2284.38104361101</v>
       </c>
       <c r="AD10" t="n">
-        <v>1650502.085319615</v>
+        <v>1845724.619436258</v>
       </c>
       <c r="AE10" t="n">
-        <v>2258289.768147275</v>
+        <v>2525401.851936024</v>
       </c>
       <c r="AF10" t="n">
         <v>4.128629326349548e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>39</v>
+        <v>38.8125</v>
       </c>
       <c r="AH10" t="n">
-        <v>2042761.762204895</v>
+        <v>2284381.04361101</v>
       </c>
     </row>
     <row r="11">
@@ -13952,28 +13952,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1605.258128038291</v>
+        <v>1800.379176928449</v>
       </c>
       <c r="AB11" t="n">
-        <v>2196.384989772445</v>
+        <v>2463.358216997105</v>
       </c>
       <c r="AC11" t="n">
-        <v>1986.765088994257</v>
+        <v>2228.258766111873</v>
       </c>
       <c r="AD11" t="n">
-        <v>1605258.128038291</v>
+        <v>1800379.176928449</v>
       </c>
       <c r="AE11" t="n">
-        <v>2196384.989772446</v>
+        <v>2463358.216997105</v>
       </c>
       <c r="AF11" t="n">
         <v>4.164393347153432e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>39</v>
+        <v>38.475</v>
       </c>
       <c r="AH11" t="n">
-        <v>1986765.088994257</v>
+        <v>2228258.766111873</v>
       </c>
     </row>
     <row r="12">
@@ -14058,28 +14058,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1590.719368873966</v>
+        <v>1785.840417764123</v>
       </c>
       <c r="AB12" t="n">
-        <v>2176.492418079029</v>
+        <v>2443.465645303689</v>
       </c>
       <c r="AC12" t="n">
-        <v>1968.771036423861</v>
+        <v>2210.264713541476</v>
       </c>
       <c r="AD12" t="n">
-        <v>1590719.368873966</v>
+        <v>1785840.417764124</v>
       </c>
       <c r="AE12" t="n">
-        <v>2176492.418079029</v>
+        <v>2443465.645303689</v>
       </c>
       <c r="AF12" t="n">
         <v>4.177852924875325e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>39</v>
+        <v>38.35416666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1968771.036423861</v>
+        <v>2210264.713541476</v>
       </c>
     </row>
     <row r="13">
@@ -14164,28 +14164,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1590.596001784603</v>
+        <v>1785.71705067476</v>
       </c>
       <c r="AB13" t="n">
-        <v>2176.32362178479</v>
+        <v>2443.296849009449</v>
       </c>
       <c r="AC13" t="n">
-        <v>1968.618349811037</v>
+        <v>2210.112026928652</v>
       </c>
       <c r="AD13" t="n">
-        <v>1590596.001784603</v>
+        <v>1785717.05067476</v>
       </c>
       <c r="AE13" t="n">
-        <v>2176323.62178479</v>
+        <v>2443296.84900945</v>
       </c>
       <c r="AF13" t="n">
         <v>4.180544840419703e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>39</v>
+        <v>38.325</v>
       </c>
       <c r="AH13" t="n">
-        <v>1968618.349811037</v>
+        <v>2210112.026928652</v>
       </c>
     </row>
     <row r="14">
@@ -14270,28 +14270,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1596.227448768552</v>
+        <v>1791.348497658709</v>
       </c>
       <c r="AB14" t="n">
-        <v>2184.028815990137</v>
+        <v>2451.002043214796</v>
       </c>
       <c r="AC14" t="n">
-        <v>1975.588171095733</v>
+        <v>2217.081848213348</v>
       </c>
       <c r="AD14" t="n">
-        <v>1596227.448768551</v>
+        <v>1791348.497658709</v>
       </c>
       <c r="AE14" t="n">
-        <v>2184028.815990136</v>
+        <v>2451002.043214796</v>
       </c>
       <c r="AF14" t="n">
         <v>4.180929399783186e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>39</v>
+        <v>38.325</v>
       </c>
       <c r="AH14" t="n">
-        <v>1975588.171095733</v>
+        <v>2217081.848213348</v>
       </c>
     </row>
   </sheetData>
@@ -14567,28 +14567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3218.013988982233</v>
+        <v>3532.097143788472</v>
       </c>
       <c r="AB2" t="n">
-        <v>4403.028708483285</v>
+        <v>4832.771137260062</v>
       </c>
       <c r="AC2" t="n">
-        <v>3982.809828235078</v>
+        <v>4371.53824275667</v>
       </c>
       <c r="AD2" t="n">
-        <v>3218013.988982233</v>
+        <v>3532097.143788472</v>
       </c>
       <c r="AE2" t="n">
-        <v>4403028.708483285</v>
+        <v>4832771.137260063</v>
       </c>
       <c r="AF2" t="n">
         <v>3.142533287550896e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3982809.828235079</v>
+        <v>4371538.24275667</v>
       </c>
     </row>
     <row r="3">
@@ -14673,28 +14673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1852.844366345758</v>
+        <v>2081.249843249142</v>
       </c>
       <c r="AB3" t="n">
-        <v>2535.143403758667</v>
+        <v>2847.657853796352</v>
       </c>
       <c r="AC3" t="n">
-        <v>2293.192875400053</v>
+        <v>2575.881384942927</v>
       </c>
       <c r="AD3" t="n">
-        <v>1852844.366345758</v>
+        <v>2081249.843249141</v>
       </c>
       <c r="AE3" t="n">
-        <v>2535143.403758667</v>
+        <v>2847657.853796352</v>
       </c>
       <c r="AF3" t="n">
         <v>4.360234973344835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2293192.875400053</v>
+        <v>2575881.384942926</v>
       </c>
     </row>
     <row r="4">
@@ -14779,28 +14779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1558.282118849402</v>
+        <v>1767.648111774373</v>
       </c>
       <c r="AB4" t="n">
-        <v>2132.110341564946</v>
+        <v>2418.574129660616</v>
       </c>
       <c r="AC4" t="n">
-        <v>1928.624723001646</v>
+        <v>2187.748809215916</v>
       </c>
       <c r="AD4" t="n">
-        <v>1558282.118849402</v>
+        <v>1767648.111774373</v>
       </c>
       <c r="AE4" t="n">
-        <v>2132110.341564946</v>
+        <v>2418574.129660616</v>
       </c>
       <c r="AF4" t="n">
         <v>4.793142304947956e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.675</v>
       </c>
       <c r="AH4" t="n">
-        <v>1928624.723001646</v>
+        <v>2187748.809215916</v>
       </c>
     </row>
     <row r="5">
@@ -14885,28 +14885,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1408.264809893192</v>
+        <v>1608.111060828959</v>
       </c>
       <c r="AB5" t="n">
-        <v>1926.850041154487</v>
+        <v>2200.288498279149</v>
       </c>
       <c r="AC5" t="n">
-        <v>1742.95417757772</v>
+        <v>1990.296052127688</v>
       </c>
       <c r="AD5" t="n">
-        <v>1408264.809893192</v>
+        <v>1608111.060828959</v>
       </c>
       <c r="AE5" t="n">
-        <v>1926850.041154487</v>
+        <v>2200288.498279149</v>
       </c>
       <c r="AF5" t="n">
         <v>5.013670956705914e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.84166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1742954.17757772</v>
+        <v>1990296.052127688</v>
       </c>
     </row>
     <row r="6">
@@ -14991,28 +14991,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1350.95181322002</v>
+        <v>1541.245167777656</v>
       </c>
       <c r="AB6" t="n">
-        <v>1848.431870635289</v>
+        <v>2108.79963349135</v>
       </c>
       <c r="AC6" t="n">
-        <v>1672.020127192281</v>
+        <v>1907.538756189809</v>
       </c>
       <c r="AD6" t="n">
-        <v>1350951.81322002</v>
+        <v>1541245.167777656</v>
       </c>
       <c r="AE6" t="n">
-        <v>1848431.870635289</v>
+        <v>2108799.633491349</v>
       </c>
       <c r="AF6" t="n">
         <v>5.102361827521614e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.15</v>
       </c>
       <c r="AH6" t="n">
-        <v>1672020.127192281</v>
+        <v>1907538.756189809</v>
       </c>
     </row>
     <row r="7">
@@ -15097,28 +15097,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1354.580320021601</v>
+        <v>1544.873674579237</v>
       </c>
       <c r="AB7" t="n">
-        <v>1853.396553719635</v>
+        <v>2113.764316575695</v>
       </c>
       <c r="AC7" t="n">
-        <v>1676.510987891033</v>
+        <v>1912.029616888561</v>
       </c>
       <c r="AD7" t="n">
-        <v>1354580.320021601</v>
+        <v>1544873.674579237</v>
       </c>
       <c r="AE7" t="n">
-        <v>1853396.553719635</v>
+        <v>2113764.316575695</v>
       </c>
       <c r="AF7" t="n">
         <v>5.106197108421753e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>39.11666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1676510.987891033</v>
+        <v>1912029.616888561</v>
       </c>
     </row>
     <row r="8">
@@ -15203,28 +15203,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1359.840617249056</v>
+        <v>1550.133971806692</v>
       </c>
       <c r="AB8" t="n">
-        <v>1860.593924454173</v>
+        <v>2120.961687310234</v>
       </c>
       <c r="AC8" t="n">
-        <v>1683.02145166424</v>
+        <v>1918.540080661769</v>
       </c>
       <c r="AD8" t="n">
-        <v>1359840.617249056</v>
+        <v>1550133.971806692</v>
       </c>
       <c r="AE8" t="n">
-        <v>1860593.924454173</v>
+        <v>2120961.687310234</v>
       </c>
       <c r="AF8" t="n">
         <v>5.107635338759304e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>39.10833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1683021.45166424</v>
+        <v>1918540.080661769</v>
       </c>
     </row>
   </sheetData>
@@ -15500,28 +15500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2252.383893696303</v>
+        <v>2524.908465130719</v>
       </c>
       <c r="AB2" t="n">
-        <v>3081.811011519795</v>
+        <v>3454.69115309194</v>
       </c>
       <c r="AC2" t="n">
-        <v>2787.68729392915</v>
+        <v>3124.980278130201</v>
       </c>
       <c r="AD2" t="n">
-        <v>2252383.893696303</v>
+        <v>2524908.465130719</v>
       </c>
       <c r="AE2" t="n">
-        <v>3081811.011519795</v>
+        <v>3454691.15309194</v>
       </c>
       <c r="AF2" t="n">
         <v>4.133663602511079e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.95</v>
       </c>
       <c r="AH2" t="n">
-        <v>2787687.29392915</v>
+        <v>3124980.278130201</v>
       </c>
     </row>
     <row r="3">
@@ -15606,28 +15606,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1456.026782325259</v>
+        <v>1662.813151016709</v>
       </c>
       <c r="AB3" t="n">
-        <v>1992.200078945552</v>
+        <v>2275.134311359926</v>
       </c>
       <c r="AC3" t="n">
-        <v>1802.067299481359</v>
+        <v>2057.998685854795</v>
       </c>
       <c r="AD3" t="n">
-        <v>1456026.782325259</v>
+        <v>1662813.151016709</v>
       </c>
       <c r="AE3" t="n">
-        <v>1992200.078945552</v>
+        <v>2275134.311359926</v>
       </c>
       <c r="AF3" t="n">
         <v>5.302406153451836e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.8375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1802067.299481359</v>
+        <v>2057998.685854795</v>
       </c>
     </row>
     <row r="4">
@@ -15712,28 +15712,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1270.656176516431</v>
+        <v>1458.607524081663</v>
       </c>
       <c r="AB4" t="n">
-        <v>1738.567838103957</v>
+        <v>1995.731163670953</v>
       </c>
       <c r="AC4" t="n">
-        <v>1572.641363730601</v>
+        <v>1805.261382436478</v>
       </c>
       <c r="AD4" t="n">
-        <v>1270656.176516431</v>
+        <v>1458607.524081663</v>
       </c>
       <c r="AE4" t="n">
-        <v>1738567.838103957</v>
+        <v>1995731.163670953</v>
       </c>
       <c r="AF4" t="n">
         <v>5.664367465870055e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.1</v>
       </c>
       <c r="AH4" t="n">
-        <v>1572641.363730601</v>
+        <v>1805261.382436478</v>
       </c>
     </row>
     <row r="5">
@@ -15818,28 +15818,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1254.25250552834</v>
+        <v>1451.603775432362</v>
       </c>
       <c r="AB5" t="n">
-        <v>1716.123611779162</v>
+        <v>1986.148325785396</v>
       </c>
       <c r="AC5" t="n">
-        <v>1552.339182865575</v>
+        <v>1796.593117149121</v>
       </c>
       <c r="AD5" t="n">
-        <v>1254252.50552834</v>
+        <v>1451603.775432362</v>
       </c>
       <c r="AE5" t="n">
-        <v>1716123.611779162</v>
+        <v>1986148.325785396</v>
       </c>
       <c r="AF5" t="n">
         <v>5.687807731583886e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.93333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1552339.182865575</v>
+        <v>1796593.117149121</v>
       </c>
     </row>
   </sheetData>
@@ -29016,28 +29016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1716.833740677931</v>
+        <v>1958.72056269933</v>
       </c>
       <c r="AB2" t="n">
-        <v>2349.047665354627</v>
+        <v>2680.00788653775</v>
       </c>
       <c r="AC2" t="n">
-        <v>2124.857853082286</v>
+        <v>2424.231695261279</v>
       </c>
       <c r="AD2" t="n">
-        <v>1716833.740677931</v>
+        <v>1958720.56269933</v>
       </c>
       <c r="AE2" t="n">
-        <v>2349047.665354628</v>
+        <v>2680007.88653775</v>
       </c>
       <c r="AF2" t="n">
         <v>5.127752241724694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>2124857.853082286</v>
+        <v>2424231.695261279</v>
       </c>
     </row>
     <row r="3">
@@ -29122,28 +29122,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1215.03481211661</v>
+        <v>1410.358642660823</v>
       </c>
       <c r="AB3" t="n">
-        <v>1662.464233490708</v>
+        <v>1929.714915520541</v>
       </c>
       <c r="AC3" t="n">
-        <v>1503.80098032956</v>
+        <v>1745.545632355154</v>
       </c>
       <c r="AD3" t="n">
-        <v>1215034.81211661</v>
+        <v>1410358.642660823</v>
       </c>
       <c r="AE3" t="n">
-        <v>1662464.233490708</v>
+        <v>1929714.915520541</v>
       </c>
       <c r="AF3" t="n">
         <v>6.18134125891765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.26666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1503800.98032956</v>
+        <v>1745545.632355154</v>
       </c>
     </row>
     <row r="4">
@@ -29228,28 +29228,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1193.539096669376</v>
+        <v>1398.167883601384</v>
       </c>
       <c r="AB4" t="n">
-        <v>1633.052847291766</v>
+        <v>1913.034981157084</v>
       </c>
       <c r="AC4" t="n">
-        <v>1477.196575550306</v>
+        <v>1730.45760751691</v>
       </c>
       <c r="AD4" t="n">
-        <v>1193539.096669376</v>
+        <v>1398167.883601384</v>
       </c>
       <c r="AE4" t="n">
-        <v>1633052.847291766</v>
+        <v>1913034.981157084</v>
       </c>
       <c r="AF4" t="n">
         <v>6.228480337548596e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.95416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1477196.575550306</v>
+        <v>1730457.60751691</v>
       </c>
     </row>
   </sheetData>
@@ -29525,28 +29525,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1117.743811682044</v>
+        <v>1327.349781855904</v>
       </c>
       <c r="AB2" t="n">
-        <v>1529.346394520122</v>
+        <v>1816.138530074769</v>
       </c>
       <c r="AC2" t="n">
-        <v>1383.387721078266</v>
+        <v>1642.808817730869</v>
       </c>
       <c r="AD2" t="n">
-        <v>1117743.811682044</v>
+        <v>1327349.781855904</v>
       </c>
       <c r="AE2" t="n">
-        <v>1529346.394520122</v>
+        <v>1816138.530074769</v>
       </c>
       <c r="AF2" t="n">
         <v>7.461249700907389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.21666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1383387.721078266</v>
+        <v>1642808.817730869</v>
       </c>
     </row>
     <row r="3">
@@ -29631,28 +29631,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1126.412946432179</v>
+        <v>1336.01891660604</v>
       </c>
       <c r="AB3" t="n">
-        <v>1541.20788714049</v>
+        <v>1828.000022695138</v>
       </c>
       <c r="AC3" t="n">
-        <v>1394.117169490656</v>
+        <v>1653.538266143259</v>
       </c>
       <c r="AD3" t="n">
-        <v>1126412.946432179</v>
+        <v>1336018.91660604</v>
       </c>
       <c r="AE3" t="n">
-        <v>1541207.88714049</v>
+        <v>1828000.022695138</v>
       </c>
       <c r="AF3" t="n">
         <v>7.465298127223672e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.19166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1394117.169490656</v>
+        <v>1653538.266143259</v>
       </c>
     </row>
   </sheetData>
@@ -29928,28 +29928,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4494.603217625438</v>
+        <v>4860.11142409213</v>
       </c>
       <c r="AB2" t="n">
-        <v>6149.714410254979</v>
+        <v>6649.818863426754</v>
       </c>
       <c r="AC2" t="n">
-        <v>5562.794298118395</v>
+        <v>6015.169484180445</v>
       </c>
       <c r="AD2" t="n">
-        <v>4494603.217625437</v>
+        <v>4860111.42409213</v>
       </c>
       <c r="AE2" t="n">
-        <v>6149714.41025498</v>
+        <v>6649818.863426754</v>
       </c>
       <c r="AF2" t="n">
         <v>2.451931513817942e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.90833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5562794.298118395</v>
+        <v>6015169.484180445</v>
       </c>
     </row>
     <row r="3">
@@ -30034,28 +30034,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2254.461954805085</v>
+        <v>2494.938669191734</v>
       </c>
       <c r="AB3" t="n">
-        <v>3084.654306406416</v>
+        <v>3413.685156114135</v>
       </c>
       <c r="AC3" t="n">
-        <v>2790.259228742381</v>
+        <v>3087.887835951681</v>
       </c>
       <c r="AD3" t="n">
-        <v>2254461.954805085</v>
+        <v>2494938.669191734</v>
       </c>
       <c r="AE3" t="n">
-        <v>3084654.306406416</v>
+        <v>3413685.156114135</v>
       </c>
       <c r="AF3" t="n">
         <v>3.713347407036327e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.80833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2790259.228742381</v>
+        <v>3087887.835951681</v>
       </c>
     </row>
     <row r="4">
@@ -30140,28 +30140,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1859.797053796318</v>
+        <v>2071.446628025096</v>
       </c>
       <c r="AB4" t="n">
-        <v>2544.656377459446</v>
+        <v>2834.24466223948</v>
       </c>
       <c r="AC4" t="n">
-        <v>2301.797944242373</v>
+        <v>2563.748329562711</v>
       </c>
       <c r="AD4" t="n">
-        <v>1859797.053796318</v>
+        <v>2071446.628025096</v>
       </c>
       <c r="AE4" t="n">
-        <v>2544656.377459446</v>
+        <v>2834244.66223948</v>
       </c>
       <c r="AF4" t="n">
         <v>4.161367534627684e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.55416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2301797.944242373</v>
+        <v>2563748.329562711</v>
       </c>
     </row>
     <row r="5">
@@ -30246,28 +30246,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1679.643310783344</v>
+        <v>1881.57096459342</v>
       </c>
       <c r="AB5" t="n">
-        <v>2298.162078446882</v>
+        <v>2574.448402809189</v>
       </c>
       <c r="AC5" t="n">
-        <v>2078.828715170647</v>
+        <v>2328.746660506106</v>
       </c>
       <c r="AD5" t="n">
-        <v>1679643.310783344</v>
+        <v>1881570.96459342</v>
       </c>
       <c r="AE5" t="n">
-        <v>2298162.078446882</v>
+        <v>2574448.402809189</v>
       </c>
       <c r="AF5" t="n">
         <v>4.397121815360223e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.21666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2078828.715170647</v>
+        <v>2328746.660506106</v>
       </c>
     </row>
     <row r="6">
@@ -30352,28 +30352,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1557.886177659276</v>
+        <v>1759.846985858275</v>
       </c>
       <c r="AB6" t="n">
-        <v>2131.568597360923</v>
+        <v>2407.900285020824</v>
       </c>
       <c r="AC6" t="n">
-        <v>1928.134682104112</v>
+        <v>2178.093661327711</v>
       </c>
       <c r="AD6" t="n">
-        <v>1557886.177659275</v>
+        <v>1759846.985858275</v>
       </c>
       <c r="AE6" t="n">
-        <v>2131568.597360923</v>
+        <v>2407900.285020824</v>
       </c>
       <c r="AF6" t="n">
         <v>4.543272070574492e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.89166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1928134.682104112</v>
+        <v>2178093.661327711</v>
       </c>
     </row>
     <row r="7">
@@ -30458,28 +30458,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1479.351725825433</v>
+        <v>1671.658944443292</v>
       </c>
       <c r="AB7" t="n">
-        <v>2024.114295666372</v>
+        <v>2287.237516175041</v>
       </c>
       <c r="AC7" t="n">
-        <v>1830.935668150229</v>
+        <v>2068.94677778931</v>
       </c>
       <c r="AD7" t="n">
-        <v>1479351.725825433</v>
+        <v>1671658.944443292</v>
       </c>
       <c r="AE7" t="n">
-        <v>2024114.295666372</v>
+        <v>2287237.516175041</v>
       </c>
       <c r="AF7" t="n">
         <v>4.641575516045993e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>39.04583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1830935.668150229</v>
+        <v>2068946.77778931</v>
       </c>
     </row>
     <row r="8">
@@ -30564,28 +30564,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1437.575513468786</v>
+        <v>1629.950051894349</v>
       </c>
       <c r="AB8" t="n">
-        <v>1966.954238883592</v>
+        <v>2230.169569323102</v>
       </c>
       <c r="AC8" t="n">
-        <v>1779.230886962154</v>
+        <v>2017.325315689554</v>
       </c>
       <c r="AD8" t="n">
-        <v>1437575.513468786</v>
+        <v>1629950.051894349</v>
       </c>
       <c r="AE8" t="n">
-        <v>1966954.238883592</v>
+        <v>2230169.569323102</v>
       </c>
       <c r="AF8" t="n">
         <v>4.678983021844884e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>39</v>
+        <v>38.73333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1779230.886962154</v>
+        <v>2017325.315689554</v>
       </c>
     </row>
     <row r="9">
@@ -30670,28 +30670,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1439.42161719993</v>
+        <v>1631.796155625493</v>
       </c>
       <c r="AB9" t="n">
-        <v>1969.480159452892</v>
+        <v>2232.695489892403</v>
       </c>
       <c r="AC9" t="n">
-        <v>1781.515737217472</v>
+        <v>2019.610165944872</v>
       </c>
       <c r="AD9" t="n">
-        <v>1439421.61719993</v>
+        <v>1631796.155625493</v>
       </c>
       <c r="AE9" t="n">
-        <v>1969480.159452892</v>
+        <v>2232695.489892403</v>
       </c>
       <c r="AF9" t="n">
         <v>4.681157876833191e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>39</v>
+        <v>38.71666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1781515.737217472</v>
+        <v>2019610.165944872</v>
       </c>
     </row>
     <row r="10">
@@ -30776,28 +30776,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1445.266978370709</v>
+        <v>1637.641516796273</v>
       </c>
       <c r="AB10" t="n">
-        <v>1977.478040485887</v>
+        <v>2240.693370925398</v>
       </c>
       <c r="AC10" t="n">
-        <v>1788.750311709775</v>
+        <v>2026.844740437175</v>
       </c>
       <c r="AD10" t="n">
-        <v>1445266.978370709</v>
+        <v>1637641.516796272</v>
       </c>
       <c r="AE10" t="n">
-        <v>1977478.040485887</v>
+        <v>2240693.370925398</v>
       </c>
       <c r="AF10" t="n">
         <v>4.682027818828514e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>39</v>
+        <v>38.7125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1788750.311709775</v>
+        <v>2026844.740437175</v>
       </c>
     </row>
   </sheetData>
@@ -31073,28 +31073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7117.905339536918</v>
+        <v>7575.37714216077</v>
       </c>
       <c r="AB2" t="n">
-        <v>9739.032105376144</v>
+        <v>10364.96520795767</v>
       </c>
       <c r="AC2" t="n">
-        <v>8809.552550056085</v>
+        <v>9375.747475829836</v>
       </c>
       <c r="AD2" t="n">
-        <v>7117905.339536918</v>
+        <v>7575377.14216077</v>
       </c>
       <c r="AE2" t="n">
-        <v>9739032.105376143</v>
+        <v>10364965.20795767</v>
       </c>
       <c r="AF2" t="n">
         <v>1.775747205052996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>93</v>
+        <v>92.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>8809552.550056085</v>
+        <v>9375747.475829836</v>
       </c>
     </row>
     <row r="3">
@@ -31179,28 +31179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2857.244166129764</v>
+        <v>3120.023558313197</v>
       </c>
       <c r="AB3" t="n">
-        <v>3909.407520815222</v>
+        <v>4268.953878209204</v>
       </c>
       <c r="AC3" t="n">
-        <v>3536.299153916385</v>
+        <v>3861.530911587156</v>
       </c>
       <c r="AD3" t="n">
-        <v>2857244.166129764</v>
+        <v>3120023.558313197</v>
       </c>
       <c r="AE3" t="n">
-        <v>3909407.520815222</v>
+        <v>4268953.878209204</v>
       </c>
       <c r="AF3" t="n">
         <v>3.076704099414532e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.22916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3536299.153916385</v>
+        <v>3861530.911587155</v>
       </c>
     </row>
     <row r="4">
@@ -31285,28 +31285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2266.485775678548</v>
+        <v>2490.354018108922</v>
       </c>
       <c r="AB4" t="n">
-        <v>3101.105828579029</v>
+        <v>3407.412234242101</v>
       </c>
       <c r="AC4" t="n">
-        <v>2805.140640728695</v>
+        <v>3082.213592939013</v>
       </c>
       <c r="AD4" t="n">
-        <v>2266485.775678548</v>
+        <v>2490354.018108922</v>
       </c>
       <c r="AE4" t="n">
-        <v>3101105.828579029</v>
+        <v>3407412.234242101</v>
       </c>
       <c r="AF4" t="n">
         <v>3.550315295095997e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2805140.640728695</v>
+        <v>3082213.592939013</v>
       </c>
     </row>
     <row r="5">
@@ -31391,28 +31391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2023.740269512394</v>
+        <v>2237.838017731031</v>
       </c>
       <c r="AB5" t="n">
-        <v>2768.970717866403</v>
+        <v>3061.908702305349</v>
       </c>
       <c r="AC5" t="n">
-        <v>2504.704038828044</v>
+        <v>2769.684433173065</v>
       </c>
       <c r="AD5" t="n">
-        <v>2023740.269512394</v>
+        <v>2237838.01773103</v>
       </c>
       <c r="AE5" t="n">
-        <v>2768970.717866403</v>
+        <v>3061908.70230535</v>
       </c>
       <c r="AF5" t="n">
         <v>3.79714337052169e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.12916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2504704.038828044</v>
+        <v>2769684.433173066</v>
       </c>
     </row>
     <row r="6">
@@ -31497,28 +31497,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1876.180664516844</v>
+        <v>2080.542083942517</v>
       </c>
       <c r="AB6" t="n">
-        <v>2567.073156441162</v>
+        <v>2846.689466288891</v>
       </c>
       <c r="AC6" t="n">
-        <v>2322.075297300221</v>
+        <v>2575.005418980038</v>
       </c>
       <c r="AD6" t="n">
-        <v>1876180.664516844</v>
+        <v>2080542.083942517</v>
       </c>
       <c r="AE6" t="n">
-        <v>2567073.156441162</v>
+        <v>2846689.466288891</v>
       </c>
       <c r="AF6" t="n">
         <v>3.955144781861067e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.40416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2322075.297300221</v>
+        <v>2575005.418980038</v>
       </c>
     </row>
     <row r="7">
@@ -31603,28 +31603,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1777.425363175838</v>
+        <v>1981.75261718273</v>
       </c>
       <c r="AB7" t="n">
-        <v>2431.951796369989</v>
+        <v>2711.52135958447</v>
       </c>
       <c r="AC7" t="n">
-        <v>2199.84973019022</v>
+        <v>2452.737566669857</v>
       </c>
       <c r="AD7" t="n">
-        <v>1777425.363175838</v>
+        <v>1981752.61718273</v>
       </c>
       <c r="AE7" t="n">
-        <v>2431951.796369989</v>
+        <v>2711521.35958447</v>
       </c>
       <c r="AF7" t="n">
         <v>4.062444247770644e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>40.3125</v>
       </c>
       <c r="AH7" t="n">
-        <v>2199849.73019022</v>
+        <v>2452737.566669857</v>
       </c>
     </row>
     <row r="8">
@@ -31709,28 +31709,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1704.07467558644</v>
+        <v>1898.801251445638</v>
       </c>
       <c r="AB8" t="n">
-        <v>2331.590149606224</v>
+        <v>2598.023641427003</v>
       </c>
       <c r="AC8" t="n">
-        <v>2109.066458135133</v>
+        <v>2350.071911438291</v>
       </c>
       <c r="AD8" t="n">
-        <v>1704074.67558644</v>
+        <v>1898801.251445638</v>
       </c>
       <c r="AE8" t="n">
-        <v>2331590.149606224</v>
+        <v>2598023.641427002</v>
       </c>
       <c r="AF8" t="n">
         <v>4.136335455063686e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>39.59166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2109066.458135133</v>
+        <v>2350071.911438291</v>
       </c>
     </row>
     <row r="9">
@@ -31815,28 +31815,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1643.911901074024</v>
+        <v>1838.536991706737</v>
       </c>
       <c r="AB9" t="n">
-        <v>2249.272787324048</v>
+        <v>2515.567422580737</v>
       </c>
       <c r="AC9" t="n">
-        <v>2034.605349376025</v>
+        <v>2275.485198390684</v>
       </c>
       <c r="AD9" t="n">
-        <v>1643911.901074024</v>
+        <v>1838536.991706737</v>
       </c>
       <c r="AE9" t="n">
-        <v>2249272.787324048</v>
+        <v>2515567.422580738</v>
       </c>
       <c r="AF9" t="n">
         <v>4.198042473920109e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>39.00833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2034605.349376025</v>
+        <v>2275485.198390684</v>
       </c>
     </row>
     <row r="10">
@@ -31921,28 +31921,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1582.23435876549</v>
+        <v>1776.926769205908</v>
       </c>
       <c r="AB10" t="n">
-        <v>2164.882852916386</v>
+        <v>2431.269598103917</v>
       </c>
       <c r="AC10" t="n">
-        <v>1958.269471866213</v>
+        <v>2199.232639969191</v>
       </c>
       <c r="AD10" t="n">
-        <v>1582234.35876549</v>
+        <v>1776926.769205908</v>
       </c>
       <c r="AE10" t="n">
-        <v>2164882.852916386</v>
+        <v>2431269.598103917</v>
       </c>
       <c r="AF10" t="n">
         <v>4.244814035983258e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>39</v>
+        <v>38.57916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1958269.471866213</v>
+        <v>2199232.639969191</v>
       </c>
     </row>
     <row r="11">
@@ -32027,28 +32027,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1555.263687398802</v>
+        <v>1749.854612612735</v>
       </c>
       <c r="AB11" t="n">
-        <v>2127.980390490439</v>
+        <v>2394.228279113881</v>
       </c>
       <c r="AC11" t="n">
-        <v>1924.888928661267</v>
+        <v>2165.726492475746</v>
       </c>
       <c r="AD11" t="n">
-        <v>1555263.687398802</v>
+        <v>1749854.612612735</v>
       </c>
       <c r="AE11" t="n">
-        <v>2127980.390490439</v>
+        <v>2394228.279113881</v>
       </c>
       <c r="AF11" t="n">
         <v>4.266038106163174e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>39</v>
+        <v>38.39166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1924888.928661267</v>
+        <v>2165726.492475746</v>
       </c>
     </row>
     <row r="12">
@@ -32133,28 +32133,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1554.731984507751</v>
+        <v>1749.322909721683</v>
       </c>
       <c r="AB12" t="n">
-        <v>2127.252891137827</v>
+        <v>2393.500779761268</v>
       </c>
       <c r="AC12" t="n">
-        <v>1924.230860825816</v>
+        <v>2165.068424640295</v>
       </c>
       <c r="AD12" t="n">
-        <v>1554731.984507751</v>
+        <v>1749322.909721683</v>
       </c>
       <c r="AE12" t="n">
-        <v>2127252.891137827</v>
+        <v>2393500.779761268</v>
       </c>
       <c r="AF12" t="n">
         <v>4.269182412856495e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>39</v>
+        <v>38.35833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1924230.860825816</v>
+        <v>2165068.424640295</v>
       </c>
     </row>
     <row r="13">
@@ -32239,28 +32239,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1561.536876850921</v>
+        <v>1756.127802064853</v>
       </c>
       <c r="AB13" t="n">
-        <v>2136.563645052414</v>
+        <v>2402.811533675856</v>
       </c>
       <c r="AC13" t="n">
-        <v>1932.653009454521</v>
+        <v>2173.490573269</v>
       </c>
       <c r="AD13" t="n">
-        <v>1561536.876850921</v>
+        <v>1756127.802064853</v>
       </c>
       <c r="AE13" t="n">
-        <v>2136563.645052414</v>
+        <v>2402811.533675856</v>
       </c>
       <c r="AF13" t="n">
         <v>4.26878937451983e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>39</v>
+        <v>38.3625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1932653.009454521</v>
+        <v>2173490.573269</v>
       </c>
     </row>
   </sheetData>
@@ -32536,28 +32536,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1113.986780570001</v>
+        <v>1348.689853033605</v>
       </c>
       <c r="AB2" t="n">
-        <v>1524.20585880411</v>
+        <v>1845.336956917596</v>
       </c>
       <c r="AC2" t="n">
-        <v>1378.737790876204</v>
+        <v>1669.220587696066</v>
       </c>
       <c r="AD2" t="n">
-        <v>1113986.780570001</v>
+        <v>1348689.853033605</v>
       </c>
       <c r="AE2" t="n">
-        <v>1524205.85880411</v>
+        <v>1845336.956917596</v>
       </c>
       <c r="AF2" t="n">
         <v>7.96886038339677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.85833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1378737.790876204</v>
+        <v>1669220.587696066</v>
       </c>
     </row>
   </sheetData>
@@ -32833,28 +32833,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2548.016890556345</v>
+        <v>2831.24179553422</v>
       </c>
       <c r="AB2" t="n">
-        <v>3486.309120231062</v>
+        <v>3873.829930222768</v>
       </c>
       <c r="AC2" t="n">
-        <v>3153.58067086166</v>
+        <v>3504.117038636615</v>
       </c>
       <c r="AD2" t="n">
-        <v>2548016.890556345</v>
+        <v>2831241.79553422</v>
       </c>
       <c r="AE2" t="n">
-        <v>3486309.120231063</v>
+        <v>3873829.930222768</v>
       </c>
       <c r="AF2" t="n">
         <v>3.75680660142155e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.65416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3153580.67086166</v>
+        <v>3504117.038636615</v>
       </c>
     </row>
     <row r="3">
@@ -32939,28 +32939,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1592.295344903702</v>
+        <v>1809.418494857974</v>
       </c>
       <c r="AB3" t="n">
-        <v>2178.64873801007</v>
+        <v>2475.726210574844</v>
       </c>
       <c r="AC3" t="n">
-        <v>1970.721560207096</v>
+        <v>2239.44637574114</v>
       </c>
       <c r="AD3" t="n">
-        <v>1592295.344903702</v>
+        <v>1809418.494857974</v>
       </c>
       <c r="AE3" t="n">
-        <v>2178648.73801007</v>
+        <v>2475726.210574843</v>
       </c>
       <c r="AF3" t="n">
         <v>4.936819191047524e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1970721.560207096</v>
+        <v>2239446.37574114</v>
       </c>
     </row>
     <row r="4">
@@ -33045,28 +33045,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1353.745126286783</v>
+        <v>1551.914740712322</v>
       </c>
       <c r="AB4" t="n">
-        <v>1852.253804805509</v>
+        <v>2123.398213888896</v>
       </c>
       <c r="AC4" t="n">
-        <v>1675.477301329413</v>
+        <v>1920.74406856345</v>
       </c>
       <c r="AD4" t="n">
-        <v>1353745.126286783</v>
+        <v>1551914.740712322</v>
       </c>
       <c r="AE4" t="n">
-        <v>1852253.804805509</v>
+        <v>2123398.213888897</v>
       </c>
       <c r="AF4" t="n">
         <v>5.35268265875712e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.46666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1675477.301329413</v>
+        <v>1920744.06856345</v>
       </c>
     </row>
     <row r="5">
@@ -33151,28 +33151,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1286.676336459428</v>
+        <v>1484.913270692671</v>
       </c>
       <c r="AB5" t="n">
-        <v>1760.487327697541</v>
+        <v>2031.72384671177</v>
       </c>
       <c r="AC5" t="n">
-        <v>1592.468888001569</v>
+        <v>1837.818974323926</v>
       </c>
       <c r="AD5" t="n">
-        <v>1286676.336459428</v>
+        <v>1484913.270692671</v>
       </c>
       <c r="AE5" t="n">
-        <v>1760487.327697541</v>
+        <v>2031723.846711769</v>
       </c>
       <c r="AF5" t="n">
         <v>5.467564941711895e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.6125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1592468.88800157</v>
+        <v>1837818.974323926</v>
       </c>
     </row>
     <row r="6">
@@ -33257,28 +33257,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1290.089413961105</v>
+        <v>1478.951571171396</v>
       </c>
       <c r="AB6" t="n">
-        <v>1765.157250909688</v>
+        <v>2023.56678641514</v>
       </c>
       <c r="AC6" t="n">
-        <v>1596.693120296629</v>
+        <v>1830.440412413501</v>
       </c>
       <c r="AD6" t="n">
-        <v>1290089.413961106</v>
+        <v>1478951.571171396</v>
       </c>
       <c r="AE6" t="n">
-        <v>1765157.250909688</v>
+        <v>2023566.78641514</v>
       </c>
       <c r="AF6" t="n">
         <v>5.470683917719717e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.59583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1596693.120296629</v>
+        <v>1830440.412413501</v>
       </c>
     </row>
   </sheetData>
@@ -33554,28 +33554,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3598.01610073455</v>
+        <v>3932.336782697485</v>
       </c>
       <c r="AB2" t="n">
-        <v>4922.964362292826</v>
+        <v>5380.396668542082</v>
       </c>
       <c r="AC2" t="n">
-        <v>4453.12355297929</v>
+        <v>4866.899161930374</v>
       </c>
       <c r="AD2" t="n">
-        <v>3598016.100734551</v>
+        <v>3932336.782697485</v>
       </c>
       <c r="AE2" t="n">
-        <v>4922964.362292826</v>
+        <v>5380396.668542081</v>
       </c>
       <c r="AF2" t="n">
         <v>2.888345114182718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>66.77499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>4453123.55297929</v>
+        <v>4866899.161930374</v>
       </c>
     </row>
     <row r="3">
@@ -33660,28 +33660,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1981.675254425929</v>
+        <v>2210.959839786084</v>
       </c>
       <c r="AB3" t="n">
-        <v>2711.415508447611</v>
+        <v>3025.13279345955</v>
       </c>
       <c r="AC3" t="n">
-        <v>2452.641817816937</v>
+        <v>2736.418365452198</v>
       </c>
       <c r="AD3" t="n">
-        <v>1981675.254425929</v>
+        <v>2210959.839786084</v>
       </c>
       <c r="AE3" t="n">
-        <v>2711415.508447611</v>
+        <v>3025132.79345955</v>
       </c>
       <c r="AF3" t="n">
         <v>4.124686428282405e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.75833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2452641.817816937</v>
+        <v>2736418.365452198</v>
       </c>
     </row>
     <row r="4">
@@ -33766,28 +33766,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1665.303961785539</v>
+        <v>1875.377166020961</v>
       </c>
       <c r="AB4" t="n">
-        <v>2278.542348540655</v>
+        <v>2565.973774351243</v>
       </c>
       <c r="AC4" t="n">
-        <v>2061.081464750206</v>
+        <v>2321.080838693972</v>
       </c>
       <c r="AD4" t="n">
-        <v>1665303.961785539</v>
+        <v>1875377.166020961</v>
       </c>
       <c r="AE4" t="n">
-        <v>2278542.348540655</v>
+        <v>2565973.774351243</v>
       </c>
       <c r="AF4" t="n">
         <v>4.55608669213149e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.33333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2061081.464750206</v>
+        <v>2321080.838693972</v>
       </c>
     </row>
     <row r="5">
@@ -33872,28 +33872,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1503.480636678041</v>
+        <v>1703.998892964342</v>
       </c>
       <c r="AB5" t="n">
-        <v>2057.128535987329</v>
+        <v>2331.486460479376</v>
       </c>
       <c r="AC5" t="n">
-        <v>1860.799075710732</v>
+        <v>2108.972664953023</v>
       </c>
       <c r="AD5" t="n">
-        <v>1503480.636678041</v>
+        <v>1703998.892964342</v>
       </c>
       <c r="AE5" t="n">
-        <v>2057128.535987329</v>
+        <v>2331486.460479376</v>
       </c>
       <c r="AF5" t="n">
         <v>4.78567309864345e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.3</v>
       </c>
       <c r="AH5" t="n">
-        <v>1860799.075710732</v>
+        <v>2108972.664953023</v>
       </c>
     </row>
     <row r="6">
@@ -33978,28 +33978,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1398.636349408648</v>
+        <v>1589.633823164607</v>
       </c>
       <c r="AB6" t="n">
-        <v>1913.675956741836</v>
+        <v>2175.007126548587</v>
       </c>
       <c r="AC6" t="n">
-        <v>1731.037409291468</v>
+        <v>1967.427499032464</v>
       </c>
       <c r="AD6" t="n">
-        <v>1398636.349408648</v>
+        <v>1589633.823164607</v>
       </c>
       <c r="AE6" t="n">
-        <v>1913675.956741835</v>
+        <v>2175007.126548587</v>
       </c>
       <c r="AF6" t="n">
         <v>4.922684341239296e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.17916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1731037.409291468</v>
+        <v>1967427.499032464</v>
       </c>
     </row>
     <row r="7">
@@ -34084,28 +34084,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1371.825435483447</v>
+        <v>1572.376846158671</v>
       </c>
       <c r="AB7" t="n">
-        <v>1876.992081495332</v>
+        <v>2151.395369284972</v>
       </c>
       <c r="AC7" t="n">
-        <v>1697.854591612349</v>
+        <v>1946.069214742779</v>
       </c>
       <c r="AD7" t="n">
-        <v>1371825.435483447</v>
+        <v>1572376.846158671</v>
       </c>
       <c r="AE7" t="n">
-        <v>1876992.081495332</v>
+        <v>2151395.369284972</v>
       </c>
       <c r="AF7" t="n">
         <v>4.949068262955389e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>39</v>
+        <v>38.97083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1697854.591612349</v>
+        <v>1946069.214742779</v>
       </c>
     </row>
     <row r="8">
@@ -34190,28 +34190,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1377.482636647245</v>
+        <v>1578.034047322469</v>
       </c>
       <c r="AB8" t="n">
-        <v>1884.732513705741</v>
+        <v>2159.135801495381</v>
       </c>
       <c r="AC8" t="n">
-        <v>1704.856287836361</v>
+        <v>1953.070910966791</v>
       </c>
       <c r="AD8" t="n">
-        <v>1377482.636647245</v>
+        <v>1578034.047322469</v>
       </c>
       <c r="AE8" t="n">
-        <v>1884732.513705741</v>
+        <v>2159135.801495381</v>
       </c>
       <c r="AF8" t="n">
         <v>4.949068262955389e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>39</v>
+        <v>38.97083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1704856.287836361</v>
+        <v>1953070.910966791</v>
       </c>
     </row>
   </sheetData>
